--- a/500all/speech_level/speeches_CHRG-114hhrg96167.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg96167.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="169">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,9 +52,6 @@
     <t>412649</t>
   </si>
   <si>
-    <t>John Katko</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Katko. The Homeland Security Subcommittee on Transportation Security will come to order.    The subcommittee is meeting today to hear testimony on improving aviation worker vetting by TSA. I now recognize myself for an opening statement.    I would like to welcome everyone to today's hearing on how TSA can improve aviation worker vetting. Since the start of the Congress, my subcommittee has actively engaged and examined a number of alarming aspects relating to TSA's operations, policies, and procedures. Through hearings, oversight inquiries, and legislation, we have been working to get to the bottom of these issues and raise awareness of the urgent need to fix them. Recent revelations that the TSA cleared for employment individuals with potential ties to terrorism demonstrate the dire need for improved, streamlined procedures at TSA. The findings released by the Department of Homeland Security inspector general over the last few weeks are, indeed, alarming.    In May, the inspector general released a report that found that TSA did not have the appropriate controls in place to ensure that screening equipment has necessary maintenance work performed. A few weeks ago, news outlets reported test results showing that screeners failed to detect prohibited threat items 96 percent of the time. Just last week, we learned that 73 airport employees with potential ties to terrorism were issued credentials which allowed them to get access to secure areas of airports. These more recent findings come out on the heels of revelations earlier this year of security breaches by employees at major U.S. airports involving a Nation-wide gun-smuggling ring and an employee of the FAA bypassing security and flying with a loaded firearm using his SIDA badge.    More recently, we learned of a drug trafficking ring operating out of the airport in Oakland, California. All of these findings individually are concerning. In the aggregate, well, they just shake the public's confidence and only further demonstrate the need for steady leadership at TSA to work through the many issues that plague this agency.    This committee will continue to lead efforts to close security loopholes and ensure the continuing safety and security of our Nation's aviation system. The purpose of today's hearing is to thoroughly examine the identified security gaps highlighted in the most recent IG report about aviation worker vetting and find ways to improve the vetting process to ensure that these vulnerabilities are addressed and the American people can feel safe and secure when traveling.    Aviation workers are supposed to be thoroughly vetted due to their continuing access to sensitive areas of airports and the fact that they hold a position of trust within the transportation system. However, as the IG report has found so clearly, there are significant shortfalls in the vetting policies for aviation workers. For example, the IG found that TSA does not have access to all the data it may need to thoroughly check an aviation worker's potential ties to terrorism. However, what is even more alarming is that a memo was sent to the TSA administrator last year noting the need for additional information. TSA has still yet to resolve this gap a year later. The report also found that airports do not match the expiration date of an employee's credentials to the expiration of their legal work authorization in the United States.    Again, while TSA stated they are working to resolve these issues by the end of the calendar year, it raises serious concerns that this gap exists in the first place. Therefore, I have sponsored H.R. 2750, the Improved Security Vetting for Aviation Workers Act of 2015, which I introduced last week along with Chairman McCaul and Ranking Member Rice and Congressman Payne, to close these security gaps and ensure the safety and security of the transportation networks. The reality is in this post-9/11 world that the terrorist threat is metastasizing. We, as a Nation, must remain responsive to any holes in the security of our transportation systems and ensure that the protocols keep pace with the ever-evolving threat landscape.    Improving the vetting of the aviation workers who have access to these sensitive areas of airports can help close another back-door vulnerability at our Nation's airports. At today's hearing, we have representatives from the TSA, the DHS inspector general himself, and GAO to address how the recommendations highlighted in the report can be implemented, and what tools are needed to improve the security at our Nation's airports. I look forward to hearing their testimony and having a meaningful dialogue on how we can better protect this vital transportation mode and keep aviation safe and secure for the American people.    The Chair now recognizes the Ranking Minority Member of the subcommittee, the gentlelady from New York, Miss Rice, for any statement she may have.</t>
   </si>
   <si>
@@ -64,27 +61,18 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Roth</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Roth. Chairman Katko, Ranking Member Rice, and Members of the subcommittee, thank you for inviting me here today to discuss the results of our most recent TSA audit.    Federal regulations require that individuals who work in secure areas of commercial airports undergo background checks. TSA and the airports are required to perform these checks before granting individuals badges that allow them unescorted access to secure areas. Each background check includes a security threat assessment from TSA, including a terrorism check, a fingerprint-based criminal history records check, and evidence of the applicant's authorization to work in the United States. The airports themselves collect this information used for vetting and submit it to TSA through a contractor.    Once TSA receives biographic data, it electronically matches it against an extract of the Terrorist Screening Database to identify individuals with potential links to terrorism. TSA also recurrently vets airport workers every time it receives a watch list update. Based on this review, TSA may direct the airport to grant, deny, or revoke a credential after coordination with other Government entities.    We found that TSA was generally effective in identifying individuals with links to terrorism. However, we did undercover a significant weakness. At our request, the National Counterterrorism Center performed a data match of over 900,000 airport workers who have access to secure areas against the National Counterterrorism Center's TIDE database. As a result of this match, we identified 73 individuals with terrorism-related category codes within the TIDE database who also had active airport credentials.    According to TSA officials, current interagency policy prevents TSA from receiving all terrorism-related codes during vetting. This lack of access to complete records resulted in TSA not discovering the issue with these 73 individuals. TSA officials candidly recognize that not receiving these codes represents a weakness in its program and informed us that TSA cannot guarantee that it can consistently identify all questionable individuals without receiving those categories.    In 2014, the TSA administrator authorized his staff to request some of the missing category codes for vetting. However, according to an official at the DHS Office of Policy, TSA and DHS has yet to formalize the request to the watchlisting interagency policy committee in order to receive additional categories of terrorism-related records.    Additionally, we found an issue with the manner in which airport workers are checked for criminal histories. The airports themselves maintain the ultimate authority to review and determine whether an individual's criminal history contains disqualifying crimes under Federal law. However, TSA did not have an adequate monitoring process in place to ensure that airport operators properly adjudicated these criminal histories.    TSA officials informed us that airport officials rarely or almost never documented the results of their criminal history reviews electronically. Without sufficient documentation, TSA cannot systematically determine whether individuals with access to secure areas of the airport are free of disqualifying criminal convictions. Moreover, under current law and FBI policy, TSA and the airports are not legally authorized to conduct recurrent vetting of criminal histories. We also found a weakness in the verification process for an individual's authorization to work in the United States.    As with criminal histories, it is the airport operators who are required to ensure that aviation workers are authorized to work before sending their information to TSA for review. TSA then verifies that aviation workers have lawful status. However, a review of TSA data showed that TSA has had to deny credentials for over 4,800 applicants because TSA determined that they did not prove their lawful status in the United States even after appeal. Now, this occurred despite the fact that these individuals had previously been cleared to work by the airports as being legally authorized to work.    Finally, we looked at the quality of the data that is involved in worker vetting. TSA relies on airports to submit complete and accurate aviation worker data. However, we identified thousands of aviation worker records that appeared to have incomplete or inaccurate biographic information. We made six recommendations in our report. TSA agreed to all the recommendations and provided target completion dates for corrective actions. We will follow up on the implementation of these corrective actions.    Mr. Chairman, thank you again for inviting me to testify here today. I look forward to any questions you or other Members of the committee may have.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Katko. Thank you, Mr. Roth, for your continued professionalism in handling these matters. We appreciate you being here today of course.    Our second witness, Ms. Fitzmaurice, the deputy assistant administrator for TSA's Office of Intelligence and Analysis. Prior to her current role, Ms. Fitzmaurice served as division director for the Checkpoint Solutions and Integrity Division within TSA's Office of Security Capabilities. In this position, she led TSA's efforts to identify, acquire, and manage state-of-the-art technologies and capabilities that screen passengers at U.S. airports. Prior to beginning her Federal career, Ms. Fitzmaurice held management positions with Airline Reporting Corporation, U.S. Airways, and Trans State Airlines. The Chair now recognizes Ms. Fitzmaurice to testify.</t>
   </si>
   <si>
-    <t>Fitzmaurice</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Fitzmaurice. Good morning, Chairman Katko, Ranking Member Rice, and distinguished Members of the subcommittee. I appreciate the opportunity to appear before you today to testify about TSA's aviation worker vetting program. TSA conducts security threat assessments for more than 2 million workers requiring badged access to airports. These individuals undergo terrorist watch list checks, as well as immigration status, and criminal history records checks.    TSA checks against the Terrorist Screening Database are constant and give us near-real-time notification of any changes to the list of known or suspected terrorists so that we can take appropriate action. Both the IG and an independent review of DHS's vetting processes deemed TSA's vetting to be effective. TSA has made key enhancements to aviation worker vetting through projects that began in 2012. These include the ability for airports to upload immigration and identity documents, to conduct more robust identity verification and immigration checks, and implementing system logic to reject inaccurate information. We will continue to work on improvements in this area.    Airport operators are responsible for reviewing FBI criminal history records and ultimately making a determination about granting badges to workers that provide secure access to our Nation's airport according to TSA's requirements. An airport operator may not issue a badge if TSA deems the individual to be ineligible. Airports represent a critical layer of security by making risk-based decisions using TSA provided information and locally-derived information for the final badging decision.    TSA recognizes the value of conducting more frequent or recurrent criminal checks on workers to identify cases where there has been subsequent criminal activity. TSA's use of criminal history records checks is considered by the FBI to be for non-criminal justice purposes according to pre-9/11 law and regulations. As such, TSA has not had access to criminal checks that are available to law enforcement agencies. However, in September 2014, the FBI implemented a new automated capability called Rap Back that will provide this service to other agencies such as TSA for a fee.    TSA and the FBI have been working together to implement recurrent criminal checks. TSA is planning for an initial Rap Back pilot in the aviation sector to begin later this calendar year. The IG recently made several key recommendations on worker vetting, including one that TSA had also identified as an area for enhancement in 2014. Namely, that there is additional intelligence-related data that may provide value and inform TSA's vetting decisions. Using this data, the IG identified 73 cases for additional attention.    To be clear, these individuals are not considered to be known or suspected terrorists. TSA has re-reviewed all 73 cases and found the individuals do not pose a threat to transportation security. The additional data did not change its original determination for these cases. These additional intelligence records do not meet the reasonable suspicion standard of being considered a known or suspected terrorist by the U.S. Government. That being said, TSA recognizes the value of having as much relevant data as possible to make informed decisions in its vetting. As such, former TSA Administrator Pistole signed a memo in 2014 supporting TSA's request and receipt for the additional data.    This information may not only be important for TSA to conduct its security threat assessment, but also may allow TSA to assist the intelligence and law enforcement community by identifying previously unknown associations of known or suspected terrorists. TSA and the Department are aggressively pursuing automated access to the data and working to expedite the process in interagency coordination to complete the request. TSA concurs with all six of the IG recommendations and is taking steps to address all of them.    In addition to the three items I have already mentioned, we will also be including a requirement for inspectors to include verifying an airport badging office's review of applicant criminal history records and legal status, publishing guidance to all regulated airports to ensure that the airport badging offices deactivate the badges promptly when an individual's temporary authorization to work in the United States ends, and working with airports to analyze denials based on legal status, validate the reasons for the denial, and issue guidance to airports to address any weaknesses.    The IG findings support our efforts to improve the vetting of regulated aviation workers and compliment the steps TSA has taken to address the potential insider threat vulnerability at U.S. airports. We recognize the value of complete and accurate information when conducting vetting. We will continue to identify areas for improvements.    TSA appreciates the work of the IG during the course of this audit. We will use the information to enhance our processes going forward. I want to thank the committee for your interest in this important issue. I look forward to answering your questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Katko. Thank you, Ms. Fitzmaurice, for your testimony.    Our third witness is Ms. Jenny Grover, director of the Homeland Security and Justice Team at the Government Accountability Office. Her portfolio includes GAO reviews of TSA and Coast Guard programs and operations. Ms. Grover joined the GAO in 1991. The Chair now recognizes her to testify.</t>
   </si>
   <si>
-    <t>Grover</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Grover. Good morning, Chairman Katko, Ranking Member Rice, Chairman McCaul, and other Members and staff. I am pleased to be here today to discuss TSA's implementation and oversight of the aviation worker program which TSA and airports use to determine whether airport workers pose security threats.    TSA, in collaboration with airport operators and the FBI, completes applicant background checks, known as security threat assessments, for airport facility workers, retail employees, and airline employees. In general, security threat assessments include checks of an applicant's criminal history, immigration status, and known links to terrorism. TSA and airport operators have different responsibilities within the process.    Airport operators collect applicant information and send it to TSA for the security threat assessment. TSA reviews the results of the terrorism and immigration checks to determine if the applicant meets the eligibility criteria for holding an airport credential. TSA transmits the results of the FBI criminal history check, which contains information from a National fingerprint and criminal history system, back to the airport operator for review. Based on this information, the airport operator evaluates the criminal history to identify potentially disqualifying criminal offenses and then makes a determination of eligibility. The airport also enrolls approved applicants and issues a credential providing for access to secured areas of the airport.    TSA has faced long-time challenges obtaining the necessary criminal history information to accurately assess aviation workers. In December 2011, we found that limitations in the criminal history checks increased the risk that the agency was not detecting all applicants with potentially disqualifying criminal offenses. For the purposes of accessing FBI criminal history records, TSA is considered a non-criminal justice requester, similar to that of a private company conducting an employment check on a new applicant. As a result, the information that TSA received on aviation work applicants was often incomplete.    For example, at the time of our report, TSA did not have access to many State records with information on sentencing, release date, and parole or probation violations. We recommended that TSA and the FBI jointly assess the extent to which this limitation posed a security risk and consider alternatives. TSA and the FBI concluded that the risk of incomplete information could be mitigated through improved access to State-supplied records. The FBI has since reported expanding the criminal history information that is available to TSA for these security threat assessments.    Our remaining vulnerability, as others have noted this morning, is that until recently, TSA did not conduct periodic criminal history checks of airport workers after they had been hired. In fact, workers who maintained continuous employment with the same airport authority did not undergo any subsequent criminal history checks.    In April 2015, TSA changed this policy by requiring periodic criminal history checks of all credentialed airport workers with unescorted access to secure areas of the airport. According to this requirement, TSA will conduct these checks until they are able to establish a system for real-time, recurrent criminal history checks, similar to the way that TSA conducts recurrent vetting against the terrorism database for their aviation workers.    In conclusion, with more complete and updated information about applicant and current worker criminal histories, TSA and airports are better positioned to detect all individuals with potentially disqualifying criminal offenses. TSA's new requirement to periodically conduct criminal history checks of their aviation workers is a positive interim step while TSA and the FBI work toward full implementation of the FBI's Rap Back service, which is intended to provide TSA and the airports with real-time criminal activity monitoring.    Chairman Katko, Ranking Member Rice, Chairman McCaul, this concludes my statement. I look forward to your questions.</t>
   </si>
   <si>
@@ -94,9 +82,6 @@
     <t>400654</t>
   </si>
   <si>
-    <t>Michael T. McCaul</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. McCaul. I would like thank Chairman Katko and Ranking Member Rice for holding this important hearing.    Recent reports about the TSA screening, in my view, are deeply disturbing and call into question some of the post-9/11 security measures we have worked hard to put in place. Yet 14 years after that horrible day, Islamist terrorists are still plotting daily to kill Americans. Lately, the threat picture has gotten worse.    Our aviation sector is of particular interest to the terrorists. They think that by taking down airplanes, they can bring down our economy. Last week we reportedly hit al-Qaeda's No. 2 in a drone strike in Yemen, where the terror group has been focused for years on developing bombs to plant on airplanes. It was an important counterterrorism victory. But it won't stop terrorists from aiming their sights at our skies.    As we stare down these threats, Congress and the American people need confidence in our defenses. Terrorists have to be right only once. To defend ourselves, we have to be right 100 percent of the time. Millions of travelers pass through our Nation's airports every year. We need to know that the systems in place will protect them. But in recent weeks, TSA has given us more concern than confidence.    Reports about TSA's performance have alarmed the American people and raised fears that bombs could pass through airport passenger screening and terrorists might slip through TSA's employee vetting. We need to get to the bottom of these claims and do everything possible to deny terrorists an opportunity to exploit our defenses.    Next month, I plan to hold a hearing on aviation security with the new TSA administrator once he is confirmed. I want him to outline his vision for TSA and give us answers on how he will close any identified vulnerabilities. This will not be easy. But in order to win the confidence of the American people, TSA needs a good wire brushing and strong leadership.    We cannot become complacent about the threat. We can and must improve our screening capabilities. We need aviation workers who are thoroughly vetted. As the first step to tackle these challenges, I am co-sponsoring H.R. 2750, the Improved Security Vetting for Aviation Workers Act, introduced by Chairman Katko, which codifies the inspector general's six recommendations to ensure there are no loopholes in the security background checks for aviation workers.    I also strongly support H.R. 2770, the Keeping Our Travelers Safe and Secure Act, introduced by Ranking Member Rice, which would close additional screening gaps and strengthen our aviation security. I want to thank the DHS Inspector General Roth for his leadership and strong oversight at TSA and DHS in bringing these vulnerabilities to our attention. I also want to thank the TSA and GAO witnesses here. I hope they are committed to changing the agency's direction and restoring the trust of the American people.    When I heard that 73 airport workers had ties to terrorism, when I got that news, well, first of all, I couldn't believe it, and I want additional briefings on these ties to terrorism, but that is totally unacceptable 14 years after 9/11. I think the American people deserve better. When we see, you know, the grandma, the veteran, the Active-Duty service, the children being patted down at these airports and water bottles being taken out of luggage and all this going on. Yet, 96 percent of the stuff gets through. We can't talk about what it is because it is Classified. But 96, that is a 4 percent success rate.    The American people deserve better. They deserve to feel safe when they travel on airplanes. With that, Mr. Chairman, I yield back.</t>
   </si>
   <si>
@@ -271,9 +256,6 @@
     <t>400341</t>
   </si>
   <si>
-    <t>Mike Rogers</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Rogers. Thank you, Mr. Chairman. Now, Mr. Roth, and this could be for Ms. Fitzmaurice, either one, because both of you have just made statements that inferred that you don't have access to databases that would give you the relevant information to make sure that these staffers don't get the SIDA badge, is that what I am hearing?    Ms. Fitzmaurice, let me go to you, you made reference a little while ago that you can't do your job without access to important information. So you are saying that you don't have that access?</t>
   </si>
   <si>
@@ -373,9 +355,6 @@
     <t>412506</t>
   </si>
   <si>
-    <t>Donald M. Payne, Jr.</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Payne. Thank you, Mr. Chairman. Thank you to the Ranking Member of this committee. Mr. Roth, a bit of a kind-of confusing element in your most recent report is how TSA's vetting process can be considered generally effective, yet 73 individuals with links to terrorism were not found during this process. It seems a little contradictory. Can you elaborate?</t>
   </si>
   <si>
@@ -421,9 +400,6 @@
     <t>412653</t>
   </si>
   <si>
-    <t>John Ratcliffe</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Ratcliffe. I thank Chairman Katko and Ranking Member Rice for holding yet another hearing on this matter. I have to say, though, that it feels a little bit like the movie Groundhog Day, where the same things keep happening over and over again.    Inspector General Roth, you are back here again, as you were previously. We have had several hearings on this matter before this subcommittee on security breaches caused by improper screening. Most recently in April, I think, we had then TSA Administrator Carraway talking about the steps that had been taken to make airport and airline employee screening more secure.    But earlier this month, we had the report about officials being able to get banned items through security checkpoints 95 percent of the time. Now, Inspector General, we have got your report revealing that the TSA failed to identify these 73 active workers with links to terrorism, citing a lack of effective controls in your report. I note in your report, you conclude with this statement, ``With our recent report, we add another security vulnerability that TSA must now address.'' I agree with you. TSA does need to address these issues.    As Chairman McCaul noted, it has now been almost 14 years since 9/11. Unfortunately, some of what I see in your report calls to mind the troubling pre-9/11 trend that we had. I know that you are a former Department of Justice official, former assistant United States attorney, I should say. As you know, we had a problem before 9/11 where intelligence and law enforcement were not sharing information and connecting the dots. But we had an excuse back then, the law didn't allow it. So we changed the law to allow the sharing of that information.    So I want to ask you about your report because you say that TSA didn't identify these 73 individuals with links to terrorism because TSA isn't cleared to receive all terrorism categories under the current interagency guidance. Did I restate that accurately?</t>
   </si>
   <si>
@@ -463,9 +439,6 @@
     <t>412435</t>
   </si>
   <si>
-    <t>William R. Keating</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Keating. Thank you, Mr. Chairman.    Mr. Ratcliffe mentioned this reminded him of the movie Groundhog Day. This also reminds me of the Leonardo DiCaprio movie, Catch Me If You Can, where he dresses up like an airline pilot, just waltzes right in through security. Because these are very real issues.    We had a hearing of the Oversight Committee, which I was Ranking at the time, at Logan Airport several years ago, and one of the major things that came out of that was the fact that there is real jurisdictional problems with airports that we have. We are hearing it again here today, in very severe terms.    I just want to follow up and say, if you have noncompliance by the municipal airport, what can you do about it? I mean, we found holes in fences, perimeters not being looked at, and they were cited in vulnerability assessments and other things, and nothing was done because there was no enforcement over those municipal airports or whoever runs the airport authority, whoever runs these things.    We are seeing now in testimony this morning that when you are reviewing some of the employment vetting that is there, that you are doing only 1 percent of it. But you are finding mistakes that they don't do and they didn't come forward with it. Yet, how is that followed up? How are they penalized for that? What are they threatened with for that?    It seems like we have a basic jurisdictional issue aside from information sharing here, where you have Federal agencies that aren't helping each other or giving each other information that they should be giving each other. We are going to change the law to make sure that is the case. Yet, what are you doing with the municipalities?    Now, Ms. Fitzmaurice, there was an effort on the part of TSA to take the exit lanes in that inner security area and move the authority away from TSA employees and give it to the local--give the responsibility to the local municipal employees. Given what we have discussed this morning, is it fair to say that is sufficiently dead? Are you going to stop pushing that effort to get rid of TSA employees and replace them with municipal airport employees, or authority of the airport, you know, their employees?    Are you aware of what that effort has been in the last couple of years trying to shift that responsibility?</t>
   </si>
   <si>
@@ -491,9 +464,6 @@
   </si>
   <si>
     <t>412622</t>
-  </si>
-  <si>
-    <t>Earl L. "Buddy" Carter</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Carter. Thank you, Mr. Chairman. I appreciate your leadership in this most disturbing situation we find ourselves in.    Mr. Roth, I read your report, and I appreciate it very much, but there were several things in your report that were very disturbing to me, very disturbing.    First of all, it is my understanding that security credentials are being given to individuals regardless of their work or authorization dates. Is that correct?</t>
@@ -949,11 +919,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -975,11 +943,9 @@
       <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
+      <c r="G3" t="s"/>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -999,13 +965,11 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s"/>
+      <c r="H4" t="s">
         <v>15</v>
-      </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1027,11 +991,9 @@
       <c r="F5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1051,13 +1013,11 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" t="s">
-        <v>19</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1079,11 +1039,9 @@
       <c r="F7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1103,13 +1061,11 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" t="s">
-        <v>22</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1131,11 +1087,9 @@
       <c r="F9" t="s">
         <v>11</v>
       </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1155,13 +1109,11 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" t="s">
-        <v>26</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1183,11 +1135,9 @@
       <c r="F11" t="s">
         <v>11</v>
       </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1207,13 +1157,11 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1235,11 +1183,9 @@
       <c r="F13" t="s">
         <v>11</v>
       </c>
-      <c r="G13" t="s">
-        <v>12</v>
-      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1259,13 +1205,11 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>15</v>
-      </c>
-      <c r="G14" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1287,11 +1231,9 @@
       <c r="F15" t="s">
         <v>11</v>
       </c>
-      <c r="G15" t="s">
-        <v>12</v>
-      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1311,13 +1253,11 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>15</v>
-      </c>
-      <c r="G16" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1339,11 +1279,9 @@
       <c r="F17" t="s">
         <v>11</v>
       </c>
-      <c r="G17" t="s">
-        <v>12</v>
-      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1363,13 +1301,11 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>15</v>
-      </c>
-      <c r="G18" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1391,11 +1327,9 @@
       <c r="F19" t="s">
         <v>11</v>
       </c>
-      <c r="G19" t="s">
-        <v>12</v>
-      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1415,13 +1349,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>15</v>
-      </c>
-      <c r="G20" t="s">
-        <v>19</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1443,11 +1375,9 @@
       <c r="F21" t="s">
         <v>11</v>
       </c>
-      <c r="G21" t="s">
-        <v>12</v>
-      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1467,13 +1397,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>15</v>
-      </c>
-      <c r="G22" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1495,11 +1423,9 @@
       <c r="F23" t="s">
         <v>11</v>
       </c>
-      <c r="G23" t="s">
-        <v>12</v>
-      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1519,13 +1445,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>15</v>
-      </c>
-      <c r="G24" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1547,11 +1471,9 @@
       <c r="F25" t="s">
         <v>11</v>
       </c>
-      <c r="G25" t="s">
-        <v>12</v>
-      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1571,13 +1493,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>15</v>
-      </c>
-      <c r="G26" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1599,11 +1519,9 @@
       <c r="F27" t="s">
         <v>11</v>
       </c>
-      <c r="G27" t="s">
-        <v>12</v>
-      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1623,13 +1541,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>15</v>
-      </c>
-      <c r="G28" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1651,11 +1567,9 @@
       <c r="F29" t="s">
         <v>11</v>
       </c>
-      <c r="G29" t="s">
-        <v>12</v>
-      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1675,13 +1589,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>15</v>
-      </c>
-      <c r="G30" t="s">
-        <v>19</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1703,11 +1615,9 @@
       <c r="F31" t="s">
         <v>11</v>
       </c>
-      <c r="G31" t="s">
-        <v>12</v>
-      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1727,13 +1637,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>15</v>
-      </c>
-      <c r="G32" t="s">
-        <v>19</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1755,11 +1663,9 @@
       <c r="F33" t="s">
         <v>11</v>
       </c>
-      <c r="G33" t="s">
-        <v>12</v>
-      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1779,13 +1685,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>15</v>
-      </c>
-      <c r="G34" t="s">
-        <v>19</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1807,11 +1711,9 @@
       <c r="F35" t="s">
         <v>11</v>
       </c>
-      <c r="G35" t="s">
-        <v>12</v>
-      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1831,13 +1733,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>15</v>
-      </c>
-      <c r="G36" t="s">
-        <v>19</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1859,11 +1759,9 @@
       <c r="F37" t="s">
         <v>11</v>
       </c>
-      <c r="G37" t="s">
-        <v>12</v>
-      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1883,13 +1781,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>15</v>
-      </c>
-      <c r="G38" t="s">
-        <v>19</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1911,11 +1807,9 @@
       <c r="F39" t="s">
         <v>11</v>
       </c>
-      <c r="G39" t="s">
-        <v>12</v>
-      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1935,13 +1829,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>15</v>
-      </c>
-      <c r="G40" t="s">
-        <v>19</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1963,11 +1855,9 @@
       <c r="F41" t="s">
         <v>11</v>
       </c>
-      <c r="G41" t="s">
-        <v>12</v>
-      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1987,13 +1877,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>15</v>
-      </c>
-      <c r="G42" t="s">
-        <v>19</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2015,11 +1903,9 @@
       <c r="F43" t="s">
         <v>11</v>
       </c>
-      <c r="G43" t="s">
-        <v>12</v>
-      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2039,13 +1925,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>15</v>
-      </c>
-      <c r="G44" t="s">
-        <v>19</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2067,11 +1951,9 @@
       <c r="F45" t="s">
         <v>11</v>
       </c>
-      <c r="G45" t="s">
-        <v>12</v>
-      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2091,13 +1973,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>15</v>
-      </c>
-      <c r="G46" t="s">
-        <v>19</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2119,11 +1999,9 @@
       <c r="F47" t="s">
         <v>11</v>
       </c>
-      <c r="G47" t="s">
-        <v>12</v>
-      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2143,13 +2021,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>15</v>
-      </c>
-      <c r="G48" t="s">
-        <v>19</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2171,11 +2047,9 @@
       <c r="F49" t="s">
         <v>11</v>
       </c>
-      <c r="G49" t="s">
-        <v>12</v>
-      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2195,13 +2069,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>15</v>
-      </c>
-      <c r="G50" t="s">
-        <v>19</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2223,11 +2095,9 @@
       <c r="F51" t="s">
         <v>11</v>
       </c>
-      <c r="G51" t="s">
-        <v>12</v>
-      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2247,13 +2117,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>15</v>
-      </c>
-      <c r="G52" t="s">
-        <v>19</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2275,11 +2143,9 @@
       <c r="F53" t="s">
         <v>11</v>
       </c>
-      <c r="G53" t="s">
-        <v>12</v>
-      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2299,13 +2165,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>15</v>
-      </c>
-      <c r="G54" t="s">
-        <v>19</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2327,11 +2191,9 @@
       <c r="F55" t="s">
         <v>11</v>
       </c>
-      <c r="G55" t="s">
-        <v>12</v>
-      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2351,13 +2213,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>15</v>
-      </c>
-      <c r="G56" t="s">
-        <v>19</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2379,11 +2239,9 @@
       <c r="F57" t="s">
         <v>11</v>
       </c>
-      <c r="G57" t="s">
-        <v>12</v>
-      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2403,13 +2261,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>15</v>
-      </c>
-      <c r="G58" t="s">
-        <v>19</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2431,11 +2287,9 @@
       <c r="F59" t="s">
         <v>11</v>
       </c>
-      <c r="G59" t="s">
-        <v>12</v>
-      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2455,13 +2309,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>15</v>
-      </c>
-      <c r="G60" t="s">
-        <v>22</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2481,13 +2333,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>15</v>
-      </c>
-      <c r="G61" t="s">
-        <v>19</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2507,13 +2357,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>15</v>
-      </c>
-      <c r="G62" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2533,13 +2381,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>15</v>
-      </c>
-      <c r="G63" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2559,13 +2405,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>15</v>
-      </c>
-      <c r="G64" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2585,13 +2429,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>15</v>
-      </c>
-      <c r="G65" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2611,13 +2453,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>15</v>
-      </c>
-      <c r="G66" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2637,13 +2477,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>15</v>
-      </c>
-      <c r="G67" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2663,13 +2501,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>15</v>
-      </c>
-      <c r="G68" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2691,11 +2527,9 @@
       <c r="F69" t="s">
         <v>11</v>
       </c>
-      <c r="G69" t="s">
-        <v>12</v>
-      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2715,13 +2549,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>84</v>
-      </c>
-      <c r="G70" t="s">
-        <v>85</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2741,13 +2573,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>15</v>
-      </c>
-      <c r="G71" t="s">
-        <v>19</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2767,13 +2597,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>84</v>
-      </c>
-      <c r="G72" t="s">
-        <v>85</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2793,13 +2621,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>15</v>
-      </c>
-      <c r="G73" t="s">
-        <v>19</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2819,13 +2645,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
+        <v>79</v>
+      </c>
+      <c r="G74" t="s"/>
+      <c r="H74" t="s">
         <v>84</v>
-      </c>
-      <c r="G74" t="s">
-        <v>85</v>
-      </c>
-      <c r="H74" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2845,13 +2669,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>15</v>
-      </c>
-      <c r="G75" t="s">
-        <v>19</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2871,13 +2693,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>84</v>
-      </c>
-      <c r="G76" t="s">
-        <v>85</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2897,13 +2717,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>15</v>
-      </c>
-      <c r="G77" t="s">
-        <v>19</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2923,13 +2741,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>84</v>
-      </c>
-      <c r="G78" t="s">
-        <v>85</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2949,13 +2765,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>15</v>
-      </c>
-      <c r="G79" t="s">
-        <v>19</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2975,13 +2789,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>84</v>
-      </c>
-      <c r="G80" t="s">
-        <v>85</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3001,13 +2813,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>15</v>
-      </c>
-      <c r="G81" t="s">
-        <v>19</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3027,13 +2837,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>84</v>
-      </c>
-      <c r="G82" t="s">
-        <v>85</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3053,13 +2861,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>15</v>
-      </c>
-      <c r="G83" t="s">
-        <v>19</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3079,13 +2885,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>84</v>
-      </c>
-      <c r="G84" t="s">
-        <v>85</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3105,13 +2909,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>15</v>
-      </c>
-      <c r="G85" t="s">
-        <v>19</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3131,13 +2933,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>84</v>
-      </c>
-      <c r="G86" t="s">
-        <v>85</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3159,11 +2959,9 @@
       <c r="F87" t="s">
         <v>11</v>
       </c>
-      <c r="G87" t="s">
-        <v>12</v>
-      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3183,13 +2981,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>84</v>
-      </c>
-      <c r="G88" t="s">
-        <v>85</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3209,13 +3005,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>15</v>
-      </c>
-      <c r="G89" t="s">
-        <v>19</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3235,13 +3029,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>84</v>
-      </c>
-      <c r="G90" t="s">
-        <v>85</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3261,13 +3053,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>15</v>
-      </c>
-      <c r="G91" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3287,13 +3077,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>84</v>
-      </c>
-      <c r="G92" t="s">
-        <v>85</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3313,13 +3101,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>15</v>
-      </c>
-      <c r="G93" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3339,13 +3125,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>84</v>
-      </c>
-      <c r="G94" t="s">
-        <v>85</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3365,13 +3149,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>15</v>
-      </c>
-      <c r="G95" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3391,13 +3173,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>84</v>
-      </c>
-      <c r="G96" t="s">
-        <v>85</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3417,13 +3197,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>15</v>
-      </c>
-      <c r="G97" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3443,13 +3221,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>84</v>
-      </c>
-      <c r="G98" t="s">
-        <v>85</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3469,13 +3245,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>15</v>
-      </c>
-      <c r="G99" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3495,13 +3269,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>84</v>
-      </c>
-      <c r="G100" t="s">
-        <v>85</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3523,11 +3295,9 @@
       <c r="F101" t="s">
         <v>11</v>
       </c>
-      <c r="G101" t="s">
-        <v>12</v>
-      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3547,13 +3317,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>118</v>
-      </c>
-      <c r="G102" t="s">
-        <v>119</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3573,13 +3341,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>15</v>
-      </c>
-      <c r="G103" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3599,13 +3365,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>118</v>
-      </c>
-      <c r="G104" t="s">
-        <v>119</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3625,13 +3389,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>15</v>
-      </c>
-      <c r="G105" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3651,13 +3413,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>118</v>
-      </c>
-      <c r="G106" t="s">
-        <v>119</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3677,13 +3437,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>15</v>
-      </c>
-      <c r="G107" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3703,13 +3461,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>118</v>
-      </c>
-      <c r="G108" t="s">
+        <v>112</v>
+      </c>
+      <c r="G108" t="s"/>
+      <c r="H108" t="s">
         <v>119</v>
-      </c>
-      <c r="H108" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3729,13 +3485,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>15</v>
-      </c>
-      <c r="G109" t="s">
-        <v>19</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3755,13 +3509,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>118</v>
-      </c>
-      <c r="G110" t="s">
-        <v>119</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3781,13 +3533,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>15</v>
-      </c>
-      <c r="G111" t="s">
-        <v>19</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3807,13 +3557,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>118</v>
-      </c>
-      <c r="G112" t="s">
-        <v>119</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3833,13 +3581,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>15</v>
-      </c>
-      <c r="G113" t="s">
-        <v>19</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3859,13 +3605,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>118</v>
-      </c>
-      <c r="G114" t="s">
-        <v>119</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3887,11 +3631,9 @@
       <c r="F115" t="s">
         <v>11</v>
       </c>
-      <c r="G115" t="s">
-        <v>12</v>
-      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3911,13 +3653,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>134</v>
-      </c>
-      <c r="G116" t="s">
-        <v>135</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3937,13 +3677,11 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>15</v>
-      </c>
-      <c r="G117" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3963,13 +3701,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>134</v>
-      </c>
-      <c r="G118" t="s">
-        <v>135</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3989,13 +3725,11 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>15</v>
-      </c>
-      <c r="G119" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4015,13 +3749,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>134</v>
-      </c>
-      <c r="G120" t="s">
-        <v>135</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4041,13 +3773,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>15</v>
-      </c>
-      <c r="G121" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4067,13 +3797,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>134</v>
-      </c>
-      <c r="G122" t="s">
-        <v>135</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4093,13 +3821,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>15</v>
-      </c>
-      <c r="G123" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4119,13 +3845,11 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
+        <v>127</v>
+      </c>
+      <c r="G124" t="s"/>
+      <c r="H124" t="s">
         <v>134</v>
-      </c>
-      <c r="G124" t="s">
-        <v>135</v>
-      </c>
-      <c r="H124" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4145,13 +3869,11 @@
         <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>15</v>
-      </c>
-      <c r="G125" t="s">
-        <v>19</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4171,13 +3893,11 @@
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>134</v>
-      </c>
-      <c r="G126" t="s">
-        <v>135</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4197,13 +3917,11 @@
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>15</v>
-      </c>
-      <c r="G127" t="s">
-        <v>19</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4223,13 +3941,11 @@
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>134</v>
-      </c>
-      <c r="G128" t="s">
-        <v>135</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4251,11 +3967,9 @@
       <c r="F129" t="s">
         <v>11</v>
       </c>
-      <c r="G129" t="s">
-        <v>12</v>
-      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4275,13 +3989,11 @@
         <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>148</v>
-      </c>
-      <c r="G130" t="s">
-        <v>149</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4301,13 +4013,11 @@
         <v>10</v>
       </c>
       <c r="F131" t="s">
-        <v>15</v>
-      </c>
-      <c r="G131" t="s">
-        <v>19</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4327,13 +4037,11 @@
         <v>10</v>
       </c>
       <c r="F132" t="s">
-        <v>148</v>
-      </c>
-      <c r="G132" t="s">
-        <v>149</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4353,13 +4061,11 @@
         <v>10</v>
       </c>
       <c r="F133" t="s">
-        <v>15</v>
-      </c>
-      <c r="G133" t="s">
-        <v>19</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4379,13 +4085,11 @@
         <v>10</v>
       </c>
       <c r="F134" t="s">
-        <v>148</v>
-      </c>
-      <c r="G134" t="s">
-        <v>149</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4405,13 +4109,11 @@
         <v>10</v>
       </c>
       <c r="F135" t="s">
-        <v>15</v>
-      </c>
-      <c r="G135" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4431,13 +4133,11 @@
         <v>10</v>
       </c>
       <c r="F136" t="s">
-        <v>148</v>
-      </c>
-      <c r="G136" t="s">
-        <v>149</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4459,11 +4159,9 @@
       <c r="F137" t="s">
         <v>11</v>
       </c>
-      <c r="G137" t="s">
-        <v>12</v>
-      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4483,13 +4181,11 @@
         <v>10</v>
       </c>
       <c r="F138" t="s">
-        <v>158</v>
-      </c>
-      <c r="G138" t="s">
-        <v>159</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4509,13 +4205,11 @@
         <v>10</v>
       </c>
       <c r="F139" t="s">
-        <v>15</v>
-      </c>
-      <c r="G139" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4535,13 +4229,11 @@
         <v>10</v>
       </c>
       <c r="F140" t="s">
-        <v>158</v>
-      </c>
-      <c r="G140" t="s">
-        <v>159</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4561,13 +4253,11 @@
         <v>10</v>
       </c>
       <c r="F141" t="s">
-        <v>15</v>
-      </c>
-      <c r="G141" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4587,13 +4277,11 @@
         <v>10</v>
       </c>
       <c r="F142" t="s">
-        <v>158</v>
-      </c>
-      <c r="G142" t="s">
-        <v>159</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4613,13 +4301,11 @@
         <v>10</v>
       </c>
       <c r="F143" t="s">
-        <v>15</v>
-      </c>
-      <c r="G143" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G143" t="s"/>
       <c r="H143" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4639,13 +4325,11 @@
         <v>10</v>
       </c>
       <c r="F144" t="s">
-        <v>158</v>
-      </c>
-      <c r="G144" t="s">
-        <v>159</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="G144" t="s"/>
       <c r="H144" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4665,13 +4349,11 @@
         <v>10</v>
       </c>
       <c r="F145" t="s">
-        <v>15</v>
-      </c>
-      <c r="G145" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4691,13 +4373,11 @@
         <v>10</v>
       </c>
       <c r="F146" t="s">
+        <v>149</v>
+      </c>
+      <c r="G146" t="s"/>
+      <c r="H146" t="s">
         <v>158</v>
-      </c>
-      <c r="G146" t="s">
-        <v>159</v>
-      </c>
-      <c r="H146" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4717,13 +4397,11 @@
         <v>10</v>
       </c>
       <c r="F147" t="s">
-        <v>15</v>
-      </c>
-      <c r="G147" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G147" t="s"/>
       <c r="H147" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4743,13 +4421,11 @@
         <v>10</v>
       </c>
       <c r="F148" t="s">
-        <v>158</v>
-      </c>
-      <c r="G148" t="s">
-        <v>159</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="G148" t="s"/>
       <c r="H148" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4769,13 +4445,11 @@
         <v>10</v>
       </c>
       <c r="F149" t="s">
-        <v>15</v>
-      </c>
-      <c r="G149" t="s">
-        <v>19</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G149" t="s"/>
       <c r="H149" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4795,13 +4469,11 @@
         <v>10</v>
       </c>
       <c r="F150" t="s">
-        <v>158</v>
-      </c>
-      <c r="G150" t="s">
-        <v>159</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="G150" t="s"/>
       <c r="H150" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4821,13 +4493,11 @@
         <v>10</v>
       </c>
       <c r="F151" t="s">
-        <v>15</v>
-      </c>
-      <c r="G151" t="s">
-        <v>19</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G151" t="s"/>
       <c r="H151" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4847,13 +4517,11 @@
         <v>10</v>
       </c>
       <c r="F152" t="s">
-        <v>158</v>
-      </c>
-      <c r="G152" t="s">
-        <v>159</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="G152" t="s"/>
       <c r="H152" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4873,13 +4541,11 @@
         <v>10</v>
       </c>
       <c r="F153" t="s">
-        <v>15</v>
-      </c>
-      <c r="G153" t="s">
-        <v>19</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G153" t="s"/>
       <c r="H153" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4899,13 +4565,11 @@
         <v>10</v>
       </c>
       <c r="F154" t="s">
-        <v>158</v>
-      </c>
-      <c r="G154" t="s">
-        <v>159</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="G154" t="s"/>
       <c r="H154" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4925,13 +4589,11 @@
         <v>10</v>
       </c>
       <c r="F155" t="s">
-        <v>15</v>
-      </c>
-      <c r="G155" t="s">
-        <v>19</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G155" t="s"/>
       <c r="H155" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4951,13 +4613,11 @@
         <v>10</v>
       </c>
       <c r="F156" t="s">
-        <v>158</v>
-      </c>
-      <c r="G156" t="s">
-        <v>159</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="G156" t="s"/>
       <c r="H156" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4979,11 +4639,9 @@
       <c r="F157" t="s">
         <v>11</v>
       </c>
-      <c r="G157" t="s">
-        <v>12</v>
-      </c>
+      <c r="G157" t="s"/>
       <c r="H157" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg96167.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg96167.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="186">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,6 +55,12 @@
     <t>412649</t>
   </si>
   <si>
+    <t>Katko</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Katko. The Homeland Security Subcommittee on Transportation Security will come to order.    The subcommittee is meeting today to hear testimony on improving aviation worker vetting by TSA. I now recognize myself for an opening statement.    I would like to welcome everyone to today's hearing on how TSA can improve aviation worker vetting. Since the start of the Congress, my subcommittee has actively engaged and examined a number of alarming aspects relating to TSA's operations, policies, and procedures. Through hearings, oversight inquiries, and legislation, we have been working to get to the bottom of these issues and raise awareness of the urgent need to fix them. Recent revelations that the TSA cleared for employment individuals with potential ties to terrorism demonstrate the dire need for improved, streamlined procedures at TSA. The findings released by the Department of Homeland Security inspector general over the last few weeks are, indeed, alarming.    In May, the inspector general released a report that found that TSA did not have the appropriate controls in place to ensure that screening equipment has necessary maintenance work performed. A few weeks ago, news outlets reported test results showing that screeners failed to detect prohibited threat items 96 percent of the time. Just last week, we learned that 73 airport employees with potential ties to terrorism were issued credentials which allowed them to get access to secure areas of airports. These more recent findings come out on the heels of revelations earlier this year of security breaches by employees at major U.S. airports involving a Nation-wide gun-smuggling ring and an employee of the FAA bypassing security and flying with a loaded firearm using his SIDA badge.    More recently, we learned of a drug trafficking ring operating out of the airport in Oakland, California. All of these findings individually are concerning. In the aggregate, well, they just shake the public's confidence and only further demonstrate the need for steady leadership at TSA to work through the many issues that plague this agency.    This committee will continue to lead efforts to close security loopholes and ensure the continuing safety and security of our Nation's aviation system. The purpose of today's hearing is to thoroughly examine the identified security gaps highlighted in the most recent IG report about aviation worker vetting and find ways to improve the vetting process to ensure that these vulnerabilities are addressed and the American people can feel safe and secure when traveling.    Aviation workers are supposed to be thoroughly vetted due to their continuing access to sensitive areas of airports and the fact that they hold a position of trust within the transportation system. However, as the IG report has found so clearly, there are significant shortfalls in the vetting policies for aviation workers. For example, the IG found that TSA does not have access to all the data it may need to thoroughly check an aviation worker's potential ties to terrorism. However, what is even more alarming is that a memo was sent to the TSA administrator last year noting the need for additional information. TSA has still yet to resolve this gap a year later. The report also found that airports do not match the expiration date of an employee's credentials to the expiration of their legal work authorization in the United States.    Again, while TSA stated they are working to resolve these issues by the end of the calendar year, it raises serious concerns that this gap exists in the first place. Therefore, I have sponsored H.R. 2750, the Improved Security Vetting for Aviation Workers Act of 2015, which I introduced last week along with Chairman McCaul and Ranking Member Rice and Congressman Payne, to close these security gaps and ensure the safety and security of the transportation networks. The reality is in this post-9/11 world that the terrorist threat is metastasizing. We, as a Nation, must remain responsive to any holes in the security of our transportation systems and ensure that the protocols keep pace with the ever-evolving threat landscape.    Improving the vetting of the aviation workers who have access to these sensitive areas of airports can help close another back-door vulnerability at our Nation's airports. At today's hearing, we have representatives from the TSA, the DHS inspector general himself, and GAO to address how the recommendations highlighted in the report can be implemented, and what tools are needed to improve the security at our Nation's airports. I look forward to hearing their testimony and having a meaningful dialogue on how we can better protect this vital transportation mode and keep aviation safe and secure for the American people.    The Chair now recognizes the Ranking Minority Member of the subcommittee, the gentlelady from New York, Miss Rice, for any statement she may have.</t>
   </si>
   <si>
@@ -61,18 +70,27 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Roth</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Roth. Chairman Katko, Ranking Member Rice, and Members of the subcommittee, thank you for inviting me here today to discuss the results of our most recent TSA audit.    Federal regulations require that individuals who work in secure areas of commercial airports undergo background checks. TSA and the airports are required to perform these checks before granting individuals badges that allow them unescorted access to secure areas. Each background check includes a security threat assessment from TSA, including a terrorism check, a fingerprint-based criminal history records check, and evidence of the applicant's authorization to work in the United States. The airports themselves collect this information used for vetting and submit it to TSA through a contractor.    Once TSA receives biographic data, it electronically matches it against an extract of the Terrorist Screening Database to identify individuals with potential links to terrorism. TSA also recurrently vets airport workers every time it receives a watch list update. Based on this review, TSA may direct the airport to grant, deny, or revoke a credential after coordination with other Government entities.    We found that TSA was generally effective in identifying individuals with links to terrorism. However, we did undercover a significant weakness. At our request, the National Counterterrorism Center performed a data match of over 900,000 airport workers who have access to secure areas against the National Counterterrorism Center's TIDE database. As a result of this match, we identified 73 individuals with terrorism-related category codes within the TIDE database who also had active airport credentials.    According to TSA officials, current interagency policy prevents TSA from receiving all terrorism-related codes during vetting. This lack of access to complete records resulted in TSA not discovering the issue with these 73 individuals. TSA officials candidly recognize that not receiving these codes represents a weakness in its program and informed us that TSA cannot guarantee that it can consistently identify all questionable individuals without receiving those categories.    In 2014, the TSA administrator authorized his staff to request some of the missing category codes for vetting. However, according to an official at the DHS Office of Policy, TSA and DHS has yet to formalize the request to the watchlisting interagency policy committee in order to receive additional categories of terrorism-related records.    Additionally, we found an issue with the manner in which airport workers are checked for criminal histories. The airports themselves maintain the ultimate authority to review and determine whether an individual's criminal history contains disqualifying crimes under Federal law. However, TSA did not have an adequate monitoring process in place to ensure that airport operators properly adjudicated these criminal histories.    TSA officials informed us that airport officials rarely or almost never documented the results of their criminal history reviews electronically. Without sufficient documentation, TSA cannot systematically determine whether individuals with access to secure areas of the airport are free of disqualifying criminal convictions. Moreover, under current law and FBI policy, TSA and the airports are not legally authorized to conduct recurrent vetting of criminal histories. We also found a weakness in the verification process for an individual's authorization to work in the United States.    As with criminal histories, it is the airport operators who are required to ensure that aviation workers are authorized to work before sending their information to TSA for review. TSA then verifies that aviation workers have lawful status. However, a review of TSA data showed that TSA has had to deny credentials for over 4,800 applicants because TSA determined that they did not prove their lawful status in the United States even after appeal. Now, this occurred despite the fact that these individuals had previously been cleared to work by the airports as being legally authorized to work.    Finally, we looked at the quality of the data that is involved in worker vetting. TSA relies on airports to submit complete and accurate aviation worker data. However, we identified thousands of aviation worker records that appeared to have incomplete or inaccurate biographic information. We made six recommendations in our report. TSA agreed to all the recommendations and provided target completion dates for corrective actions. We will follow up on the implementation of these corrective actions.    Mr. Chairman, thank you again for inviting me to testify here today. I look forward to any questions you or other Members of the committee may have.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Katko. Thank you, Mr. Roth, for your continued professionalism in handling these matters. We appreciate you being here today of course.    Our second witness, Ms. Fitzmaurice, the deputy assistant administrator for TSA's Office of Intelligence and Analysis. Prior to her current role, Ms. Fitzmaurice served as division director for the Checkpoint Solutions and Integrity Division within TSA's Office of Security Capabilities. In this position, she led TSA's efforts to identify, acquire, and manage state-of-the-art technologies and capabilities that screen passengers at U.S. airports. Prior to beginning her Federal career, Ms. Fitzmaurice held management positions with Airline Reporting Corporation, U.S. Airways, and Trans State Airlines. The Chair now recognizes Ms. Fitzmaurice to testify.</t>
   </si>
   <si>
+    <t>Fitzmaurice</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Fitzmaurice. Good morning, Chairman Katko, Ranking Member Rice, and distinguished Members of the subcommittee. I appreciate the opportunity to appear before you today to testify about TSA's aviation worker vetting program. TSA conducts security threat assessments for more than 2 million workers requiring badged access to airports. These individuals undergo terrorist watch list checks, as well as immigration status, and criminal history records checks.    TSA checks against the Terrorist Screening Database are constant and give us near-real-time notification of any changes to the list of known or suspected terrorists so that we can take appropriate action. Both the IG and an independent review of DHS's vetting processes deemed TSA's vetting to be effective. TSA has made key enhancements to aviation worker vetting through projects that began in 2012. These include the ability for airports to upload immigration and identity documents, to conduct more robust identity verification and immigration checks, and implementing system logic to reject inaccurate information. We will continue to work on improvements in this area.    Airport operators are responsible for reviewing FBI criminal history records and ultimately making a determination about granting badges to workers that provide secure access to our Nation's airport according to TSA's requirements. An airport operator may not issue a badge if TSA deems the individual to be ineligible. Airports represent a critical layer of security by making risk-based decisions using TSA provided information and locally-derived information for the final badging decision.    TSA recognizes the value of conducting more frequent or recurrent criminal checks on workers to identify cases where there has been subsequent criminal activity. TSA's use of criminal history records checks is considered by the FBI to be for non-criminal justice purposes according to pre-9/11 law and regulations. As such, TSA has not had access to criminal checks that are available to law enforcement agencies. However, in September 2014, the FBI implemented a new automated capability called Rap Back that will provide this service to other agencies such as TSA for a fee.    TSA and the FBI have been working together to implement recurrent criminal checks. TSA is planning for an initial Rap Back pilot in the aviation sector to begin later this calendar year. The IG recently made several key recommendations on worker vetting, including one that TSA had also identified as an area for enhancement in 2014. Namely, that there is additional intelligence-related data that may provide value and inform TSA's vetting decisions. Using this data, the IG identified 73 cases for additional attention.    To be clear, these individuals are not considered to be known or suspected terrorists. TSA has re-reviewed all 73 cases and found the individuals do not pose a threat to transportation security. The additional data did not change its original determination for these cases. These additional intelligence records do not meet the reasonable suspicion standard of being considered a known or suspected terrorist by the U.S. Government. That being said, TSA recognizes the value of having as much relevant data as possible to make informed decisions in its vetting. As such, former TSA Administrator Pistole signed a memo in 2014 supporting TSA's request and receipt for the additional data.    This information may not only be important for TSA to conduct its security threat assessment, but also may allow TSA to assist the intelligence and law enforcement community by identifying previously unknown associations of known or suspected terrorists. TSA and the Department are aggressively pursuing automated access to the data and working to expedite the process in interagency coordination to complete the request. TSA concurs with all six of the IG recommendations and is taking steps to address all of them.    In addition to the three items I have already mentioned, we will also be including a requirement for inspectors to include verifying an airport badging office's review of applicant criminal history records and legal status, publishing guidance to all regulated airports to ensure that the airport badging offices deactivate the badges promptly when an individual's temporary authorization to work in the United States ends, and working with airports to analyze denials based on legal status, validate the reasons for the denial, and issue guidance to airports to address any weaknesses.    The IG findings support our efforts to improve the vetting of regulated aviation workers and compliment the steps TSA has taken to address the potential insider threat vulnerability at U.S. airports. We recognize the value of complete and accurate information when conducting vetting. We will continue to identify areas for improvements.    TSA appreciates the work of the IG during the course of this audit. We will use the information to enhance our processes going forward. I want to thank the committee for your interest in this important issue. I look forward to answering your questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Katko. Thank you, Ms. Fitzmaurice, for your testimony.    Our third witness is Ms. Jenny Grover, director of the Homeland Security and Justice Team at the Government Accountability Office. Her portfolio includes GAO reviews of TSA and Coast Guard programs and operations. Ms. Grover joined the GAO in 1991. The Chair now recognizes her to testify.</t>
   </si>
   <si>
+    <t>Grover</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Grover. Good morning, Chairman Katko, Ranking Member Rice, Chairman McCaul, and other Members and staff. I am pleased to be here today to discuss TSA's implementation and oversight of the aviation worker program which TSA and airports use to determine whether airport workers pose security threats.    TSA, in collaboration with airport operators and the FBI, completes applicant background checks, known as security threat assessments, for airport facility workers, retail employees, and airline employees. In general, security threat assessments include checks of an applicant's criminal history, immigration status, and known links to terrorism. TSA and airport operators have different responsibilities within the process.    Airport operators collect applicant information and send it to TSA for the security threat assessment. TSA reviews the results of the terrorism and immigration checks to determine if the applicant meets the eligibility criteria for holding an airport credential. TSA transmits the results of the FBI criminal history check, which contains information from a National fingerprint and criminal history system, back to the airport operator for review. Based on this information, the airport operator evaluates the criminal history to identify potentially disqualifying criminal offenses and then makes a determination of eligibility. The airport also enrolls approved applicants and issues a credential providing for access to secured areas of the airport.    TSA has faced long-time challenges obtaining the necessary criminal history information to accurately assess aviation workers. In December 2011, we found that limitations in the criminal history checks increased the risk that the agency was not detecting all applicants with potentially disqualifying criminal offenses. For the purposes of accessing FBI criminal history records, TSA is considered a non-criminal justice requester, similar to that of a private company conducting an employment check on a new applicant. As a result, the information that TSA received on aviation work applicants was often incomplete.    For example, at the time of our report, TSA did not have access to many State records with information on sentencing, release date, and parole or probation violations. We recommended that TSA and the FBI jointly assess the extent to which this limitation posed a security risk and consider alternatives. TSA and the FBI concluded that the risk of incomplete information could be mitigated through improved access to State-supplied records. The FBI has since reported expanding the criminal history information that is available to TSA for these security threat assessments.    Our remaining vulnerability, as others have noted this morning, is that until recently, TSA did not conduct periodic criminal history checks of airport workers after they had been hired. In fact, workers who maintained continuous employment with the same airport authority did not undergo any subsequent criminal history checks.    In April 2015, TSA changed this policy by requiring periodic criminal history checks of all credentialed airport workers with unescorted access to secure areas of the airport. According to this requirement, TSA will conduct these checks until they are able to establish a system for real-time, recurrent criminal history checks, similar to the way that TSA conducts recurrent vetting against the terrorism database for their aviation workers.    In conclusion, with more complete and updated information about applicant and current worker criminal histories, TSA and airports are better positioned to detect all individuals with potentially disqualifying criminal offenses. TSA's new requirement to periodically conduct criminal history checks of their aviation workers is a positive interim step while TSA and the FBI work toward full implementation of the FBI's Rap Back service, which is intended to provide TSA and the airports with real-time criminal activity monitoring.    Chairman Katko, Ranking Member Rice, Chairman McCaul, this concludes my statement. I look forward to your questions.</t>
   </si>
   <si>
@@ -82,6 +100,12 @@
     <t>400654</t>
   </si>
   <si>
+    <t>McCaul</t>
+  </si>
+  <si>
+    <t>Michael</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. McCaul. I would like thank Chairman Katko and Ranking Member Rice for holding this important hearing.    Recent reports about the TSA screening, in my view, are deeply disturbing and call into question some of the post-9/11 security measures we have worked hard to put in place. Yet 14 years after that horrible day, Islamist terrorists are still plotting daily to kill Americans. Lately, the threat picture has gotten worse.    Our aviation sector is of particular interest to the terrorists. They think that by taking down airplanes, they can bring down our economy. Last week we reportedly hit al-Qaeda's No. 2 in a drone strike in Yemen, where the terror group has been focused for years on developing bombs to plant on airplanes. It was an important counterterrorism victory. But it won't stop terrorists from aiming their sights at our skies.    As we stare down these threats, Congress and the American people need confidence in our defenses. Terrorists have to be right only once. To defend ourselves, we have to be right 100 percent of the time. Millions of travelers pass through our Nation's airports every year. We need to know that the systems in place will protect them. But in recent weeks, TSA has given us more concern than confidence.    Reports about TSA's performance have alarmed the American people and raised fears that bombs could pass through airport passenger screening and terrorists might slip through TSA's employee vetting. We need to get to the bottom of these claims and do everything possible to deny terrorists an opportunity to exploit our defenses.    Next month, I plan to hold a hearing on aviation security with the new TSA administrator once he is confirmed. I want him to outline his vision for TSA and give us answers on how he will close any identified vulnerabilities. This will not be easy. But in order to win the confidence of the American people, TSA needs a good wire brushing and strong leadership.    We cannot become complacent about the threat. We can and must improve our screening capabilities. We need aviation workers who are thoroughly vetted. As the first step to tackle these challenges, I am co-sponsoring H.R. 2750, the Improved Security Vetting for Aviation Workers Act, introduced by Chairman Katko, which codifies the inspector general's six recommendations to ensure there are no loopholes in the security background checks for aviation workers.    I also strongly support H.R. 2770, the Keeping Our Travelers Safe and Secure Act, introduced by Ranking Member Rice, which would close additional screening gaps and strengthen our aviation security. I want to thank the DHS Inspector General Roth for his leadership and strong oversight at TSA and DHS in bringing these vulnerabilities to our attention. I also want to thank the TSA and GAO witnesses here. I hope they are committed to changing the agency's direction and restoring the trust of the American people.    When I heard that 73 airport workers had ties to terrorism, when I got that news, well, first of all, I couldn't believe it, and I want additional briefings on these ties to terrorism, but that is totally unacceptable 14 years after 9/11. I think the American people deserve better. When we see, you know, the grandma, the veteran, the Active-Duty service, the children being patted down at these airports and water bottles being taken out of luggage and all this going on. Yet, 96 percent of the stuff gets through. We can't talk about what it is because it is Classified. But 96, that is a 4 percent success rate.    The American people deserve better. They deserve to feel safe when they travel on airplanes. With that, Mr. Chairman, I yield back.</t>
   </si>
   <si>
@@ -256,6 +280,12 @@
     <t>400341</t>
   </si>
   <si>
+    <t>Rogers</t>
+  </si>
+  <si>
+    <t>Mike</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Rogers. Thank you, Mr. Chairman. Now, Mr. Roth, and this could be for Ms. Fitzmaurice, either one, because both of you have just made statements that inferred that you don't have access to databases that would give you the relevant information to make sure that these staffers don't get the SIDA badge, is that what I am hearing?    Ms. Fitzmaurice, let me go to you, you made reference a little while ago that you can't do your job without access to important information. So you are saying that you don't have that access?</t>
   </si>
   <si>
@@ -355,6 +385,12 @@
     <t>412506</t>
   </si>
   <si>
+    <t>Payne</t>
+  </si>
+  <si>
+    <t>Donald</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Payne. Thank you, Mr. Chairman. Thank you to the Ranking Member of this committee. Mr. Roth, a bit of a kind-of confusing element in your most recent report is how TSA's vetting process can be considered generally effective, yet 73 individuals with links to terrorism were not found during this process. It seems a little contradictory. Can you elaborate?</t>
   </si>
   <si>
@@ -400,6 +436,9 @@
     <t>412653</t>
   </si>
   <si>
+    <t>Ratcliffe</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Ratcliffe. I thank Chairman Katko and Ranking Member Rice for holding yet another hearing on this matter. I have to say, though, that it feels a little bit like the movie Groundhog Day, where the same things keep happening over and over again.    Inspector General Roth, you are back here again, as you were previously. We have had several hearings on this matter before this subcommittee on security breaches caused by improper screening. Most recently in April, I think, we had then TSA Administrator Carraway talking about the steps that had been taken to make airport and airline employee screening more secure.    But earlier this month, we had the report about officials being able to get banned items through security checkpoints 95 percent of the time. Now, Inspector General, we have got your report revealing that the TSA failed to identify these 73 active workers with links to terrorism, citing a lack of effective controls in your report. I note in your report, you conclude with this statement, ``With our recent report, we add another security vulnerability that TSA must now address.'' I agree with you. TSA does need to address these issues.    As Chairman McCaul noted, it has now been almost 14 years since 9/11. Unfortunately, some of what I see in your report calls to mind the troubling pre-9/11 trend that we had. I know that you are a former Department of Justice official, former assistant United States attorney, I should say. As you know, we had a problem before 9/11 where intelligence and law enforcement were not sharing information and connecting the dots. But we had an excuse back then, the law didn't allow it. So we changed the law to allow the sharing of that information.    So I want to ask you about your report because you say that TSA didn't identify these 73 individuals with links to terrorism because TSA isn't cleared to receive all terrorism categories under the current interagency guidance. Did I restate that accurately?</t>
   </si>
   <si>
@@ -439,6 +478,12 @@
     <t>412435</t>
   </si>
   <si>
+    <t>Keating</t>
+  </si>
+  <si>
+    <t>William</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Keating. Thank you, Mr. Chairman.    Mr. Ratcliffe mentioned this reminded him of the movie Groundhog Day. This also reminds me of the Leonardo DiCaprio movie, Catch Me If You Can, where he dresses up like an airline pilot, just waltzes right in through security. Because these are very real issues.    We had a hearing of the Oversight Committee, which I was Ranking at the time, at Logan Airport several years ago, and one of the major things that came out of that was the fact that there is real jurisdictional problems with airports that we have. We are hearing it again here today, in very severe terms.    I just want to follow up and say, if you have noncompliance by the municipal airport, what can you do about it? I mean, we found holes in fences, perimeters not being looked at, and they were cited in vulnerability assessments and other things, and nothing was done because there was no enforcement over those municipal airports or whoever runs the airport authority, whoever runs these things.    We are seeing now in testimony this morning that when you are reviewing some of the employment vetting that is there, that you are doing only 1 percent of it. But you are finding mistakes that they don't do and they didn't come forward with it. Yet, how is that followed up? How are they penalized for that? What are they threatened with for that?    It seems like we have a basic jurisdictional issue aside from information sharing here, where you have Federal agencies that aren't helping each other or giving each other information that they should be giving each other. We are going to change the law to make sure that is the case. Yet, what are you doing with the municipalities?    Now, Ms. Fitzmaurice, there was an effort on the part of TSA to take the exit lanes in that inner security area and move the authority away from TSA employees and give it to the local--give the responsibility to the local municipal employees. Given what we have discussed this morning, is it fair to say that is sufficiently dead? Are you going to stop pushing that effort to get rid of TSA employees and replace them with municipal airport employees, or authority of the airport, you know, their employees?    Are you aware of what that effort has been in the last couple of years trying to shift that responsibility?</t>
   </si>
   <si>
@@ -464,6 +509,12 @@
   </si>
   <si>
     <t>412622</t>
+  </si>
+  <si>
+    <t>Carter</t>
+  </si>
+  <si>
+    <t>Buddy</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Carter. Thank you, Mr. Chairman. I appreciate your leadership in this most disturbing situation we find ourselves in.    Mr. Roth, I read your report, and I appreciate it very much, but there were several things in your report that were very disturbing to me, very disturbing.    First of all, it is my understanding that security credentials are being given to individuals regardless of their work or authorization dates. Is that correct?</t>
@@ -869,7 +920,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H157"/>
+  <dimension ref="A1:I157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -877,7 +928,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -899,3749 +950,4384 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
       <c r="H3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s"/>
-      <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" t="s"/>
+      <c r="I4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
       <c r="H5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" t="s"/>
-      <c r="H6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" t="s"/>
+      <c r="I6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
       <c r="H7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" t="s"/>
-      <c r="H8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" t="s"/>
+      <c r="I8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
       <c r="H9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" t="s"/>
+        <v>27</v>
+      </c>
+      <c r="G10" t="s">
+        <v>28</v>
+      </c>
       <c r="H10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="I10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
       <c r="H11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" t="s"/>
+      <c r="I12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" t="s">
         <v>14</v>
       </c>
-      <c r="G12" t="s"/>
-      <c r="H12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" t="s"/>
-      <c r="H13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="I13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14" t="s"/>
-      <c r="H14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" t="s"/>
+      <c r="I14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G15" t="s">
+        <v>13</v>
+      </c>
       <c r="H15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>14</v>
-      </c>
-      <c r="G16" t="s"/>
-      <c r="H16" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H16" t="s"/>
+      <c r="I16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G17" t="s">
+        <v>13</v>
+      </c>
       <c r="H17" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H18" t="s"/>
+      <c r="I18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" t="s">
         <v>14</v>
       </c>
-      <c r="G18" t="s"/>
-      <c r="H18" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19" t="s">
-        <v>10</v>
-      </c>
-      <c r="F19" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" t="s"/>
-      <c r="H19" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="I19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20" t="s"/>
-      <c r="H20" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G20" t="s">
+        <v>21</v>
+      </c>
+      <c r="H20" t="s"/>
+      <c r="I20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G21" t="s">
+        <v>13</v>
+      </c>
       <c r="H21" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22" t="s"/>
-      <c r="H22" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G22" t="s">
+        <v>18</v>
+      </c>
+      <c r="H22" t="s"/>
+      <c r="I22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G23" t="s">
+        <v>13</v>
+      </c>
       <c r="H23" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>14</v>
-      </c>
-      <c r="G24" t="s"/>
-      <c r="H24" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G24" t="s">
+        <v>18</v>
+      </c>
+      <c r="H24" t="s"/>
+      <c r="I24" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G25" t="s">
+        <v>13</v>
+      </c>
       <c r="H25" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I25" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>14</v>
-      </c>
-      <c r="G26" t="s"/>
-      <c r="H26" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G26" t="s">
+        <v>18</v>
+      </c>
+      <c r="H26" t="s"/>
+      <c r="I26" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>11</v>
-      </c>
-      <c r="G27" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G27" t="s">
+        <v>13</v>
+      </c>
       <c r="H27" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I27" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>14</v>
-      </c>
-      <c r="G28" t="s"/>
-      <c r="H28" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G28" t="s">
+        <v>18</v>
+      </c>
+      <c r="H28" t="s"/>
+      <c r="I28" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G29" t="s">
+        <v>13</v>
+      </c>
       <c r="H29" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I29" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>14</v>
-      </c>
-      <c r="G30" t="s"/>
-      <c r="H30" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G30" t="s">
+        <v>21</v>
+      </c>
+      <c r="H30" t="s"/>
+      <c r="I30" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>11</v>
-      </c>
-      <c r="G31" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G31" t="s">
+        <v>13</v>
+      </c>
       <c r="H31" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I31" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>14</v>
-      </c>
-      <c r="G32" t="s"/>
-      <c r="H32" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G32" t="s">
+        <v>21</v>
+      </c>
+      <c r="H32" t="s"/>
+      <c r="I32" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G33" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G33" t="s">
+        <v>13</v>
+      </c>
       <c r="H33" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I33" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>14</v>
-      </c>
-      <c r="G34" t="s"/>
-      <c r="H34" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G34" t="s">
+        <v>21</v>
+      </c>
+      <c r="H34" t="s"/>
+      <c r="I34" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>11</v>
-      </c>
-      <c r="G35" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G35" t="s">
+        <v>13</v>
+      </c>
       <c r="H35" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I35" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>14</v>
-      </c>
-      <c r="G36" t="s"/>
-      <c r="H36" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G36" t="s">
+        <v>21</v>
+      </c>
+      <c r="H36" t="s"/>
+      <c r="I36" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>11</v>
-      </c>
-      <c r="G37" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G37" t="s">
+        <v>13</v>
+      </c>
       <c r="H37" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I37" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>14</v>
-      </c>
-      <c r="G38" t="s"/>
-      <c r="H38" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G38" t="s">
+        <v>21</v>
+      </c>
+      <c r="H38" t="s"/>
+      <c r="I38" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>11</v>
-      </c>
-      <c r="G39" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G39" t="s">
+        <v>13</v>
+      </c>
       <c r="H39" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I39" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>14</v>
-      </c>
-      <c r="G40" t="s"/>
-      <c r="H40" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G40" t="s">
+        <v>21</v>
+      </c>
+      <c r="H40" t="s"/>
+      <c r="I40" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>11</v>
-      </c>
-      <c r="G41" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G41" t="s">
+        <v>13</v>
+      </c>
       <c r="H41" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I41" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>14</v>
-      </c>
-      <c r="G42" t="s"/>
-      <c r="H42" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G42" t="s">
+        <v>21</v>
+      </c>
+      <c r="H42" t="s"/>
+      <c r="I42" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>11</v>
-      </c>
-      <c r="G43" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G43" t="s">
+        <v>13</v>
+      </c>
       <c r="H43" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I43" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>14</v>
-      </c>
-      <c r="G44" t="s"/>
-      <c r="H44" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G44" t="s">
+        <v>21</v>
+      </c>
+      <c r="H44" t="s"/>
+      <c r="I44" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>11</v>
-      </c>
-      <c r="G45" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G45" t="s">
+        <v>13</v>
+      </c>
       <c r="H45" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I45" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>14</v>
-      </c>
-      <c r="G46" t="s"/>
-      <c r="H46" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G46" t="s">
+        <v>21</v>
+      </c>
+      <c r="H46" t="s"/>
+      <c r="I46" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>11</v>
-      </c>
-      <c r="G47" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G47" t="s">
+        <v>13</v>
+      </c>
       <c r="H47" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I47" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>14</v>
-      </c>
-      <c r="G48" t="s"/>
-      <c r="H48" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G48" t="s">
+        <v>21</v>
+      </c>
+      <c r="H48" t="s"/>
+      <c r="I48" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>11</v>
-      </c>
-      <c r="G49" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G49" t="s">
+        <v>13</v>
+      </c>
       <c r="H49" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I49" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>14</v>
-      </c>
-      <c r="G50" t="s"/>
-      <c r="H50" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G50" t="s">
+        <v>21</v>
+      </c>
+      <c r="H50" t="s"/>
+      <c r="I50" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>11</v>
-      </c>
-      <c r="G51" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G51" t="s">
+        <v>13</v>
+      </c>
       <c r="H51" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I51" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>14</v>
-      </c>
-      <c r="G52" t="s"/>
-      <c r="H52" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G52" t="s">
+        <v>21</v>
+      </c>
+      <c r="H52" t="s"/>
+      <c r="I52" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>11</v>
-      </c>
-      <c r="G53" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G53" t="s">
+        <v>13</v>
+      </c>
       <c r="H53" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I53" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>14</v>
-      </c>
-      <c r="G54" t="s"/>
-      <c r="H54" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G54" t="s">
+        <v>21</v>
+      </c>
+      <c r="H54" t="s"/>
+      <c r="I54" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>11</v>
-      </c>
-      <c r="G55" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G55" t="s">
+        <v>13</v>
+      </c>
       <c r="H55" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I55" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>14</v>
-      </c>
-      <c r="G56" t="s"/>
-      <c r="H56" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G56" t="s">
+        <v>21</v>
+      </c>
+      <c r="H56" t="s"/>
+      <c r="I56" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>11</v>
-      </c>
-      <c r="G57" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G57" t="s">
+        <v>13</v>
+      </c>
       <c r="H57" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I57" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>14</v>
-      </c>
-      <c r="G58" t="s"/>
-      <c r="H58" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G58" t="s">
+        <v>21</v>
+      </c>
+      <c r="H58" t="s"/>
+      <c r="I58" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>11</v>
-      </c>
-      <c r="G59" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G59" t="s">
+        <v>13</v>
+      </c>
       <c r="H59" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I59" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>14</v>
-      </c>
-      <c r="G60" t="s"/>
-      <c r="H60" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G60" t="s">
+        <v>24</v>
+      </c>
+      <c r="H60" t="s"/>
+      <c r="I60" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>14</v>
-      </c>
-      <c r="G61" t="s"/>
-      <c r="H61" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G61" t="s">
+        <v>21</v>
+      </c>
+      <c r="H61" t="s"/>
+      <c r="I61" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>14</v>
-      </c>
-      <c r="G62" t="s"/>
-      <c r="H62" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G62" t="s">
+        <v>18</v>
+      </c>
+      <c r="H62" t="s"/>
+      <c r="I62" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>14</v>
-      </c>
-      <c r="G63" t="s"/>
-      <c r="H63" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G63" t="s">
+        <v>18</v>
+      </c>
+      <c r="H63" t="s"/>
+      <c r="I63" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>14</v>
-      </c>
-      <c r="G64" t="s"/>
-      <c r="H64" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G64" t="s">
+        <v>18</v>
+      </c>
+      <c r="H64" t="s"/>
+      <c r="I64" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>14</v>
-      </c>
-      <c r="G65" t="s"/>
-      <c r="H65" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G65" t="s">
+        <v>18</v>
+      </c>
+      <c r="H65" t="s"/>
+      <c r="I65" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>14</v>
-      </c>
-      <c r="G66" t="s"/>
-      <c r="H66" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G66" t="s">
+        <v>18</v>
+      </c>
+      <c r="H66" t="s"/>
+      <c r="I66" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>14</v>
-      </c>
-      <c r="G67" t="s"/>
-      <c r="H67" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G67" t="s">
+        <v>18</v>
+      </c>
+      <c r="H67" t="s"/>
+      <c r="I67" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>14</v>
-      </c>
-      <c r="G68" t="s"/>
-      <c r="H68" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G68" t="s">
+        <v>18</v>
+      </c>
+      <c r="H68" t="s"/>
+      <c r="I68" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>11</v>
-      </c>
-      <c r="G69" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G69" t="s">
+        <v>13</v>
+      </c>
       <c r="H69" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I69" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>79</v>
-      </c>
-      <c r="G70" t="s"/>
+        <v>87</v>
+      </c>
+      <c r="G70" t="s">
+        <v>88</v>
+      </c>
       <c r="H70" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>89</v>
+      </c>
+      <c r="I70" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>14</v>
-      </c>
-      <c r="G71" t="s"/>
-      <c r="H71" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G71" t="s">
+        <v>21</v>
+      </c>
+      <c r="H71" t="s"/>
+      <c r="I71" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>79</v>
-      </c>
-      <c r="G72" t="s"/>
+        <v>87</v>
+      </c>
+      <c r="G72" t="s">
+        <v>88</v>
+      </c>
       <c r="H72" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>89</v>
+      </c>
+      <c r="I72" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>14</v>
-      </c>
-      <c r="G73" t="s"/>
-      <c r="H73" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G73" t="s">
+        <v>21</v>
+      </c>
+      <c r="H73" t="s"/>
+      <c r="I73" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>79</v>
-      </c>
-      <c r="G74" t="s"/>
+        <v>87</v>
+      </c>
+      <c r="G74" t="s">
+        <v>88</v>
+      </c>
       <c r="H74" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>89</v>
+      </c>
+      <c r="I74" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>14</v>
-      </c>
-      <c r="G75" t="s"/>
-      <c r="H75" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G75" t="s">
+        <v>21</v>
+      </c>
+      <c r="H75" t="s"/>
+      <c r="I75" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>79</v>
-      </c>
-      <c r="G76" t="s"/>
+        <v>87</v>
+      </c>
+      <c r="G76" t="s">
+        <v>88</v>
+      </c>
       <c r="H76" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>89</v>
+      </c>
+      <c r="I76" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>14</v>
-      </c>
-      <c r="G77" t="s"/>
-      <c r="H77" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G77" t="s">
+        <v>21</v>
+      </c>
+      <c r="H77" t="s"/>
+      <c r="I77" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>79</v>
-      </c>
-      <c r="G78" t="s"/>
+        <v>87</v>
+      </c>
+      <c r="G78" t="s">
+        <v>88</v>
+      </c>
       <c r="H78" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>89</v>
+      </c>
+      <c r="I78" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>14</v>
-      </c>
-      <c r="G79" t="s"/>
-      <c r="H79" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G79" t="s">
+        <v>21</v>
+      </c>
+      <c r="H79" t="s"/>
+      <c r="I79" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>79</v>
-      </c>
-      <c r="G80" t="s"/>
+        <v>87</v>
+      </c>
+      <c r="G80" t="s">
+        <v>88</v>
+      </c>
       <c r="H80" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>89</v>
+      </c>
+      <c r="I80" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>14</v>
-      </c>
-      <c r="G81" t="s"/>
-      <c r="H81" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G81" t="s">
+        <v>21</v>
+      </c>
+      <c r="H81" t="s"/>
+      <c r="I81" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>79</v>
-      </c>
-      <c r="G82" t="s"/>
+        <v>87</v>
+      </c>
+      <c r="G82" t="s">
+        <v>88</v>
+      </c>
       <c r="H82" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>89</v>
+      </c>
+      <c r="I82" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>14</v>
-      </c>
-      <c r="G83" t="s"/>
-      <c r="H83" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G83" t="s">
+        <v>21</v>
+      </c>
+      <c r="H83" t="s"/>
+      <c r="I83" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>79</v>
-      </c>
-      <c r="G84" t="s"/>
+        <v>87</v>
+      </c>
+      <c r="G84" t="s">
+        <v>88</v>
+      </c>
       <c r="H84" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>89</v>
+      </c>
+      <c r="I84" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>14</v>
-      </c>
-      <c r="G85" t="s"/>
-      <c r="H85" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G85" t="s">
+        <v>21</v>
+      </c>
+      <c r="H85" t="s"/>
+      <c r="I85" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>79</v>
-      </c>
-      <c r="G86" t="s"/>
+        <v>87</v>
+      </c>
+      <c r="G86" t="s">
+        <v>88</v>
+      </c>
       <c r="H86" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>89</v>
+      </c>
+      <c r="I86" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>11</v>
-      </c>
-      <c r="G87" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G87" t="s">
+        <v>13</v>
+      </c>
       <c r="H87" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I87" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>79</v>
-      </c>
-      <c r="G88" t="s"/>
+        <v>87</v>
+      </c>
+      <c r="G88" t="s">
+        <v>88</v>
+      </c>
       <c r="H88" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>89</v>
+      </c>
+      <c r="I88" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>14</v>
-      </c>
-      <c r="G89" t="s"/>
-      <c r="H89" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G89" t="s">
+        <v>21</v>
+      </c>
+      <c r="H89" t="s"/>
+      <c r="I89" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>79</v>
-      </c>
-      <c r="G90" t="s"/>
+        <v>87</v>
+      </c>
+      <c r="G90" t="s">
+        <v>88</v>
+      </c>
       <c r="H90" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>89</v>
+      </c>
+      <c r="I90" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>14</v>
-      </c>
-      <c r="G91" t="s"/>
-      <c r="H91" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G91" t="s">
+        <v>18</v>
+      </c>
+      <c r="H91" t="s"/>
+      <c r="I91" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>79</v>
-      </c>
-      <c r="G92" t="s"/>
+        <v>87</v>
+      </c>
+      <c r="G92" t="s">
+        <v>88</v>
+      </c>
       <c r="H92" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>89</v>
+      </c>
+      <c r="I92" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>14</v>
-      </c>
-      <c r="G93" t="s"/>
-      <c r="H93" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G93" t="s">
+        <v>18</v>
+      </c>
+      <c r="H93" t="s"/>
+      <c r="I93" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>79</v>
-      </c>
-      <c r="G94" t="s"/>
+        <v>87</v>
+      </c>
+      <c r="G94" t="s">
+        <v>88</v>
+      </c>
       <c r="H94" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>89</v>
+      </c>
+      <c r="I94" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>14</v>
-      </c>
-      <c r="G95" t="s"/>
-      <c r="H95" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G95" t="s">
+        <v>18</v>
+      </c>
+      <c r="H95" t="s"/>
+      <c r="I95" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>79</v>
-      </c>
-      <c r="G96" t="s"/>
+        <v>87</v>
+      </c>
+      <c r="G96" t="s">
+        <v>88</v>
+      </c>
       <c r="H96" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>89</v>
+      </c>
+      <c r="I96" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>14</v>
-      </c>
-      <c r="G97" t="s"/>
-      <c r="H97" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G97" t="s">
+        <v>18</v>
+      </c>
+      <c r="H97" t="s"/>
+      <c r="I97" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>79</v>
-      </c>
-      <c r="G98" t="s"/>
+        <v>87</v>
+      </c>
+      <c r="G98" t="s">
+        <v>88</v>
+      </c>
       <c r="H98" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>89</v>
+      </c>
+      <c r="I98" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>14</v>
-      </c>
-      <c r="G99" t="s"/>
-      <c r="H99" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G99" t="s">
+        <v>18</v>
+      </c>
+      <c r="H99" t="s"/>
+      <c r="I99" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>79</v>
-      </c>
-      <c r="G100" t="s"/>
+        <v>87</v>
+      </c>
+      <c r="G100" t="s">
+        <v>88</v>
+      </c>
       <c r="H100" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>89</v>
+      </c>
+      <c r="I100" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>11</v>
-      </c>
-      <c r="G101" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G101" t="s">
+        <v>13</v>
+      </c>
       <c r="H101" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I101" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>112</v>
-      </c>
-      <c r="G102" t="s"/>
+        <v>122</v>
+      </c>
+      <c r="G102" t="s">
+        <v>123</v>
+      </c>
       <c r="H102" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>124</v>
+      </c>
+      <c r="I102" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>14</v>
-      </c>
-      <c r="G103" t="s"/>
-      <c r="H103" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G103" t="s">
+        <v>18</v>
+      </c>
+      <c r="H103" t="s"/>
+      <c r="I103" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F104" t="s">
-        <v>112</v>
-      </c>
-      <c r="G104" t="s"/>
+        <v>122</v>
+      </c>
+      <c r="G104" t="s">
+        <v>123</v>
+      </c>
       <c r="H104" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>124</v>
+      </c>
+      <c r="I104" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>14</v>
-      </c>
-      <c r="G105" t="s"/>
-      <c r="H105" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G105" t="s">
+        <v>18</v>
+      </c>
+      <c r="H105" t="s"/>
+      <c r="I105" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>112</v>
-      </c>
-      <c r="G106" t="s"/>
+        <v>122</v>
+      </c>
+      <c r="G106" t="s">
+        <v>123</v>
+      </c>
       <c r="H106" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>124</v>
+      </c>
+      <c r="I106" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F107" t="s">
-        <v>14</v>
-      </c>
-      <c r="G107" t="s"/>
-      <c r="H107" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G107" t="s">
+        <v>18</v>
+      </c>
+      <c r="H107" t="s"/>
+      <c r="I107" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F108" t="s">
-        <v>112</v>
-      </c>
-      <c r="G108" t="s"/>
+        <v>122</v>
+      </c>
+      <c r="G108" t="s">
+        <v>123</v>
+      </c>
       <c r="H108" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>124</v>
+      </c>
+      <c r="I108" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F109" t="s">
-        <v>14</v>
-      </c>
-      <c r="G109" t="s"/>
-      <c r="H109" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G109" t="s">
+        <v>21</v>
+      </c>
+      <c r="H109" t="s"/>
+      <c r="I109" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F110" t="s">
-        <v>112</v>
-      </c>
-      <c r="G110" t="s"/>
+        <v>122</v>
+      </c>
+      <c r="G110" t="s">
+        <v>123</v>
+      </c>
       <c r="H110" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>124</v>
+      </c>
+      <c r="I110" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F111" t="s">
-        <v>14</v>
-      </c>
-      <c r="G111" t="s"/>
-      <c r="H111" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G111" t="s">
+        <v>21</v>
+      </c>
+      <c r="H111" t="s"/>
+      <c r="I111" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F112" t="s">
-        <v>112</v>
-      </c>
-      <c r="G112" t="s"/>
+        <v>122</v>
+      </c>
+      <c r="G112" t="s">
+        <v>123</v>
+      </c>
       <c r="H112" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>124</v>
+      </c>
+      <c r="I112" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F113" t="s">
-        <v>14</v>
-      </c>
-      <c r="G113" t="s"/>
-      <c r="H113" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G113" t="s">
+        <v>21</v>
+      </c>
+      <c r="H113" t="s"/>
+      <c r="I113" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F114" t="s">
-        <v>112</v>
-      </c>
-      <c r="G114" t="s"/>
+        <v>122</v>
+      </c>
+      <c r="G114" t="s">
+        <v>123</v>
+      </c>
       <c r="H114" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>124</v>
+      </c>
+      <c r="I114" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F115" t="s">
-        <v>11</v>
-      </c>
-      <c r="G115" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G115" t="s">
+        <v>13</v>
+      </c>
       <c r="H115" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I115" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F116" t="s">
-        <v>127</v>
-      </c>
-      <c r="G116" t="s"/>
+        <v>139</v>
+      </c>
+      <c r="G116" t="s">
+        <v>140</v>
+      </c>
       <c r="H116" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I116" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F117" t="s">
-        <v>14</v>
-      </c>
-      <c r="G117" t="s"/>
-      <c r="H117" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G117" t="s">
+        <v>18</v>
+      </c>
+      <c r="H117" t="s"/>
+      <c r="I117" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F118" t="s">
-        <v>127</v>
-      </c>
-      <c r="G118" t="s"/>
+        <v>139</v>
+      </c>
+      <c r="G118" t="s">
+        <v>140</v>
+      </c>
       <c r="H118" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I118" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F119" t="s">
-        <v>14</v>
-      </c>
-      <c r="G119" t="s"/>
-      <c r="H119" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G119" t="s">
+        <v>18</v>
+      </c>
+      <c r="H119" t="s"/>
+      <c r="I119" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F120" t="s">
-        <v>127</v>
-      </c>
-      <c r="G120" t="s"/>
+        <v>139</v>
+      </c>
+      <c r="G120" t="s">
+        <v>140</v>
+      </c>
       <c r="H120" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I120" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F121" t="s">
-        <v>14</v>
-      </c>
-      <c r="G121" t="s"/>
-      <c r="H121" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G121" t="s">
+        <v>18</v>
+      </c>
+      <c r="H121" t="s"/>
+      <c r="I121" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F122" t="s">
-        <v>127</v>
-      </c>
-      <c r="G122" t="s"/>
+        <v>139</v>
+      </c>
+      <c r="G122" t="s">
+        <v>140</v>
+      </c>
       <c r="H122" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I122" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F123" t="s">
-        <v>14</v>
-      </c>
-      <c r="G123" t="s"/>
-      <c r="H123" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G123" t="s">
+        <v>18</v>
+      </c>
+      <c r="H123" t="s"/>
+      <c r="I123" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F124" t="s">
-        <v>127</v>
-      </c>
-      <c r="G124" t="s"/>
+        <v>139</v>
+      </c>
+      <c r="G124" t="s">
+        <v>140</v>
+      </c>
       <c r="H124" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I124" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F125" t="s">
-        <v>14</v>
-      </c>
-      <c r="G125" t="s"/>
-      <c r="H125" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G125" t="s">
+        <v>21</v>
+      </c>
+      <c r="H125" t="s"/>
+      <c r="I125" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F126" t="s">
-        <v>127</v>
-      </c>
-      <c r="G126" t="s"/>
+        <v>139</v>
+      </c>
+      <c r="G126" t="s">
+        <v>140</v>
+      </c>
       <c r="H126" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I126" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F127" t="s">
-        <v>14</v>
-      </c>
-      <c r="G127" t="s"/>
-      <c r="H127" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G127" t="s">
+        <v>21</v>
+      </c>
+      <c r="H127" t="s"/>
+      <c r="I127" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F128" t="s">
-        <v>127</v>
-      </c>
-      <c r="G128" t="s"/>
+        <v>139</v>
+      </c>
+      <c r="G128" t="s">
+        <v>140</v>
+      </c>
       <c r="H128" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I128" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F129" t="s">
-        <v>11</v>
-      </c>
-      <c r="G129" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G129" t="s">
+        <v>13</v>
+      </c>
       <c r="H129" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I129" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F130" t="s">
-        <v>140</v>
-      </c>
-      <c r="G130" t="s"/>
+        <v>153</v>
+      </c>
+      <c r="G130" t="s">
+        <v>154</v>
+      </c>
       <c r="H130" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+        <v>155</v>
+      </c>
+      <c r="I130" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F131" t="s">
-        <v>14</v>
-      </c>
-      <c r="G131" t="s"/>
-      <c r="H131" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G131" t="s">
+        <v>21</v>
+      </c>
+      <c r="H131" t="s"/>
+      <c r="I131" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F132" t="s">
-        <v>140</v>
-      </c>
-      <c r="G132" t="s"/>
+        <v>153</v>
+      </c>
+      <c r="G132" t="s">
+        <v>154</v>
+      </c>
       <c r="H132" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
+        <v>155</v>
+      </c>
+      <c r="I132" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F133" t="s">
-        <v>14</v>
-      </c>
-      <c r="G133" t="s"/>
-      <c r="H133" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G133" t="s">
+        <v>21</v>
+      </c>
+      <c r="H133" t="s"/>
+      <c r="I133" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F134" t="s">
-        <v>140</v>
-      </c>
-      <c r="G134" t="s"/>
+        <v>153</v>
+      </c>
+      <c r="G134" t="s">
+        <v>154</v>
+      </c>
       <c r="H134" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
+        <v>155</v>
+      </c>
+      <c r="I134" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F135" t="s">
-        <v>14</v>
-      </c>
-      <c r="G135" t="s"/>
-      <c r="H135" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G135" t="s">
+        <v>18</v>
+      </c>
+      <c r="H135" t="s"/>
+      <c r="I135" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F136" t="s">
-        <v>140</v>
-      </c>
-      <c r="G136" t="s"/>
+        <v>153</v>
+      </c>
+      <c r="G136" t="s">
+        <v>154</v>
+      </c>
       <c r="H136" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
+        <v>155</v>
+      </c>
+      <c r="I136" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F137" t="s">
-        <v>11</v>
-      </c>
-      <c r="G137" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G137" t="s">
+        <v>13</v>
+      </c>
       <c r="H137" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I137" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F138" t="s">
-        <v>149</v>
-      </c>
-      <c r="G138" t="s"/>
+        <v>164</v>
+      </c>
+      <c r="G138" t="s">
+        <v>165</v>
+      </c>
       <c r="H138" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
+        <v>166</v>
+      </c>
+      <c r="I138" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F139" t="s">
-        <v>14</v>
-      </c>
-      <c r="G139" t="s"/>
-      <c r="H139" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G139" t="s">
+        <v>18</v>
+      </c>
+      <c r="H139" t="s"/>
+      <c r="I139" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F140" t="s">
-        <v>149</v>
-      </c>
-      <c r="G140" t="s"/>
+        <v>164</v>
+      </c>
+      <c r="G140" t="s">
+        <v>165</v>
+      </c>
       <c r="H140" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
+        <v>166</v>
+      </c>
+      <c r="I140" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F141" t="s">
-        <v>14</v>
-      </c>
-      <c r="G141" t="s"/>
-      <c r="H141" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G141" t="s">
+        <v>18</v>
+      </c>
+      <c r="H141" t="s"/>
+      <c r="I141" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F142" t="s">
-        <v>149</v>
-      </c>
-      <c r="G142" t="s"/>
+        <v>164</v>
+      </c>
+      <c r="G142" t="s">
+        <v>165</v>
+      </c>
       <c r="H142" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8">
+        <v>166</v>
+      </c>
+      <c r="I142" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F143" t="s">
-        <v>14</v>
-      </c>
-      <c r="G143" t="s"/>
-      <c r="H143" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G143" t="s">
+        <v>18</v>
+      </c>
+      <c r="H143" t="s"/>
+      <c r="I143" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F144" t="s">
-        <v>149</v>
-      </c>
-      <c r="G144" t="s"/>
+        <v>164</v>
+      </c>
+      <c r="G144" t="s">
+        <v>165</v>
+      </c>
       <c r="H144" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8">
+        <v>166</v>
+      </c>
+      <c r="I144" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F145" t="s">
-        <v>14</v>
-      </c>
-      <c r="G145" t="s"/>
-      <c r="H145" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G145" t="s">
+        <v>18</v>
+      </c>
+      <c r="H145" t="s"/>
+      <c r="I145" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F146" t="s">
-        <v>149</v>
-      </c>
-      <c r="G146" t="s"/>
+        <v>164</v>
+      </c>
+      <c r="G146" t="s">
+        <v>165</v>
+      </c>
       <c r="H146" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8">
+        <v>166</v>
+      </c>
+      <c r="I146" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F147" t="s">
-        <v>14</v>
-      </c>
-      <c r="G147" t="s"/>
-      <c r="H147" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G147" t="s">
+        <v>18</v>
+      </c>
+      <c r="H147" t="s"/>
+      <c r="I147" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F148" t="s">
-        <v>149</v>
-      </c>
-      <c r="G148" t="s"/>
+        <v>164</v>
+      </c>
+      <c r="G148" t="s">
+        <v>165</v>
+      </c>
       <c r="H148" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8">
+        <v>166</v>
+      </c>
+      <c r="I148" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F149" t="s">
-        <v>14</v>
-      </c>
-      <c r="G149" t="s"/>
-      <c r="H149" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G149" t="s">
+        <v>21</v>
+      </c>
+      <c r="H149" t="s"/>
+      <c r="I149" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F150" t="s">
-        <v>149</v>
-      </c>
-      <c r="G150" t="s"/>
+        <v>164</v>
+      </c>
+      <c r="G150" t="s">
+        <v>165</v>
+      </c>
       <c r="H150" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8">
+        <v>166</v>
+      </c>
+      <c r="I150" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F151" t="s">
-        <v>14</v>
-      </c>
-      <c r="G151" t="s"/>
-      <c r="H151" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G151" t="s">
+        <v>21</v>
+      </c>
+      <c r="H151" t="s"/>
+      <c r="I151" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F152" t="s">
-        <v>149</v>
-      </c>
-      <c r="G152" t="s"/>
+        <v>164</v>
+      </c>
+      <c r="G152" t="s">
+        <v>165</v>
+      </c>
       <c r="H152" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8">
+        <v>166</v>
+      </c>
+      <c r="I152" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F153" t="s">
-        <v>14</v>
-      </c>
-      <c r="G153" t="s"/>
-      <c r="H153" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G153" t="s">
+        <v>21</v>
+      </c>
+      <c r="H153" t="s"/>
+      <c r="I153" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F154" t="s">
-        <v>149</v>
-      </c>
-      <c r="G154" t="s"/>
+        <v>164</v>
+      </c>
+      <c r="G154" t="s">
+        <v>165</v>
+      </c>
       <c r="H154" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8">
+        <v>166</v>
+      </c>
+      <c r="I154" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F155" t="s">
-        <v>14</v>
-      </c>
-      <c r="G155" t="s"/>
-      <c r="H155" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G155" t="s">
+        <v>21</v>
+      </c>
+      <c r="H155" t="s"/>
+      <c r="I155" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D156" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E156" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F156" t="s">
-        <v>149</v>
-      </c>
-      <c r="G156" t="s"/>
+        <v>164</v>
+      </c>
+      <c r="G156" t="s">
+        <v>165</v>
+      </c>
       <c r="H156" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8">
+        <v>166</v>
+      </c>
+      <c r="I156" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C157" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D157" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E157" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F157" t="s">
-        <v>11</v>
-      </c>
-      <c r="G157" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G157" t="s">
+        <v>13</v>
+      </c>
       <c r="H157" t="s">
-        <v>168</v>
+        <v>14</v>
+      </c>
+      <c r="I157" t="s">
+        <v>185</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg96167.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg96167.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="190">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>412649</t>
   </si>
   <si>
+    <t>Chair</t>
+  </si>
+  <si>
     <t>Katko</t>
   </si>
   <si>
@@ -100,6 +106,9 @@
     <t>400654</t>
   </si>
   <si>
+    <t>Ex Officio</t>
+  </si>
+  <si>
     <t>McCaul</t>
   </si>
   <si>
@@ -278,6 +287,9 @@
   </si>
   <si>
     <t>400341</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>Rogers</t>
@@ -920,7 +932,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I157"/>
+  <dimension ref="A1:J157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -928,7 +940,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -953,4381 +965,4704 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" t="s"/>
-      <c r="I4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G4" t="s"/>
+      <c r="H4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" t="s"/>
+      <c r="J4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" t="s"/>
-      <c r="I6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G6" t="s"/>
+      <c r="H6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" t="s"/>
+      <c r="J6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H8" t="s"/>
-      <c r="I8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G8" t="s"/>
+      <c r="H8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" t="s"/>
+      <c r="J8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H10" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="J10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" t="s"/>
+      <c r="H12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12" t="s"/>
+      <c r="J12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
         <v>13</v>
       </c>
-      <c r="H11" t="s">
+      <c r="G13" t="s">
         <v>14</v>
       </c>
-      <c r="I11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12" t="s">
-        <v>18</v>
-      </c>
-      <c r="H12" t="s"/>
-      <c r="I12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" t="s">
-        <v>13</v>
-      </c>
       <c r="H13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F14" t="s">
-        <v>17</v>
-      </c>
-      <c r="G14" t="s">
-        <v>18</v>
-      </c>
-      <c r="H14" t="s"/>
-      <c r="I14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G14" t="s"/>
+      <c r="H14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I14" t="s"/>
+      <c r="J14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" t="s">
-        <v>18</v>
-      </c>
-      <c r="H16" t="s"/>
-      <c r="I16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G16" t="s"/>
+      <c r="H16" t="s">
+        <v>20</v>
+      </c>
+      <c r="I16" t="s"/>
+      <c r="J16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I17" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>17</v>
-      </c>
-      <c r="G18" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" t="s"/>
-      <c r="I18" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G18" t="s"/>
+      <c r="H18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I18" t="s"/>
+      <c r="J18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I19" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>17</v>
-      </c>
-      <c r="G20" t="s">
-        <v>21</v>
-      </c>
-      <c r="H20" t="s"/>
-      <c r="I20" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G20" t="s"/>
+      <c r="H20" t="s">
+        <v>23</v>
+      </c>
+      <c r="I20" t="s"/>
+      <c r="J20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H21" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I21" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>17</v>
-      </c>
-      <c r="G22" t="s">
-        <v>18</v>
-      </c>
-      <c r="H22" t="s"/>
-      <c r="I22" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G22" t="s"/>
+      <c r="H22" t="s">
+        <v>20</v>
+      </c>
+      <c r="I22" t="s"/>
+      <c r="J22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G23" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H23" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I23" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>17</v>
-      </c>
-      <c r="G24" t="s">
-        <v>18</v>
-      </c>
-      <c r="H24" t="s"/>
-      <c r="I24" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G24" t="s"/>
+      <c r="H24" t="s">
+        <v>20</v>
+      </c>
+      <c r="I24" t="s"/>
+      <c r="J24" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G25" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H25" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I25" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J25" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>17</v>
-      </c>
-      <c r="G26" t="s">
-        <v>18</v>
-      </c>
-      <c r="H26" t="s"/>
-      <c r="I26" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G26" t="s"/>
+      <c r="H26" t="s">
+        <v>20</v>
+      </c>
+      <c r="I26" t="s"/>
+      <c r="J26" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G27" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H27" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I27" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>17</v>
-      </c>
-      <c r="G28" t="s">
-        <v>18</v>
-      </c>
-      <c r="H28" t="s"/>
-      <c r="I28" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G28" t="s"/>
+      <c r="H28" t="s">
+        <v>20</v>
+      </c>
+      <c r="I28" t="s"/>
+      <c r="J28" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G29" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H29" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J29" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>17</v>
-      </c>
-      <c r="G30" t="s">
-        <v>21</v>
-      </c>
-      <c r="H30" t="s"/>
-      <c r="I30" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G30" t="s"/>
+      <c r="H30" t="s">
+        <v>23</v>
+      </c>
+      <c r="I30" t="s"/>
+      <c r="J30" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G31" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H31" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I31" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J31" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>17</v>
-      </c>
-      <c r="G32" t="s">
-        <v>21</v>
-      </c>
-      <c r="H32" t="s"/>
-      <c r="I32" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G32" t="s"/>
+      <c r="H32" t="s">
+        <v>23</v>
+      </c>
+      <c r="I32" t="s"/>
+      <c r="J32" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G33" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H33" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I33" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J33" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>17</v>
-      </c>
-      <c r="G34" t="s">
-        <v>21</v>
-      </c>
-      <c r="H34" t="s"/>
-      <c r="I34" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G34" t="s"/>
+      <c r="H34" t="s">
+        <v>23</v>
+      </c>
+      <c r="I34" t="s"/>
+      <c r="J34" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G35" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H35" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I35" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J35" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>17</v>
-      </c>
-      <c r="G36" t="s">
-        <v>21</v>
-      </c>
-      <c r="H36" t="s"/>
-      <c r="I36" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G36" t="s"/>
+      <c r="H36" t="s">
+        <v>23</v>
+      </c>
+      <c r="I36" t="s"/>
+      <c r="J36" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G37" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H37" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I37" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J37" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>17</v>
-      </c>
-      <c r="G38" t="s">
-        <v>21</v>
-      </c>
-      <c r="H38" t="s"/>
-      <c r="I38" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G38" t="s"/>
+      <c r="H38" t="s">
+        <v>23</v>
+      </c>
+      <c r="I38" t="s"/>
+      <c r="J38" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G39" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H39" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I39" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J39" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>17</v>
-      </c>
-      <c r="G40" t="s">
-        <v>21</v>
-      </c>
-      <c r="H40" t="s"/>
-      <c r="I40" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G40" t="s"/>
+      <c r="H40" t="s">
+        <v>23</v>
+      </c>
+      <c r="I40" t="s"/>
+      <c r="J40" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G41" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H41" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I41" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J41" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>17</v>
-      </c>
-      <c r="G42" t="s">
-        <v>21</v>
-      </c>
-      <c r="H42" t="s"/>
-      <c r="I42" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G42" t="s"/>
+      <c r="H42" t="s">
+        <v>23</v>
+      </c>
+      <c r="I42" t="s"/>
+      <c r="J42" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G43" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H43" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I43" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J43" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>17</v>
-      </c>
-      <c r="G44" t="s">
-        <v>21</v>
-      </c>
-      <c r="H44" t="s"/>
-      <c r="I44" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G44" t="s"/>
+      <c r="H44" t="s">
+        <v>23</v>
+      </c>
+      <c r="I44" t="s"/>
+      <c r="J44" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G45" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H45" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I45" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J45" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>17</v>
-      </c>
-      <c r="G46" t="s">
-        <v>21</v>
-      </c>
-      <c r="H46" t="s"/>
-      <c r="I46" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G46" t="s"/>
+      <c r="H46" t="s">
+        <v>23</v>
+      </c>
+      <c r="I46" t="s"/>
+      <c r="J46" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G47" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H47" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I47" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J47" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>17</v>
-      </c>
-      <c r="G48" t="s">
-        <v>21</v>
-      </c>
-      <c r="H48" t="s"/>
-      <c r="I48" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G48" t="s"/>
+      <c r="H48" t="s">
+        <v>23</v>
+      </c>
+      <c r="I48" t="s"/>
+      <c r="J48" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G49" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H49" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I49" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J49" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>17</v>
-      </c>
-      <c r="G50" t="s">
-        <v>21</v>
-      </c>
-      <c r="H50" t="s"/>
-      <c r="I50" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G50" t="s"/>
+      <c r="H50" t="s">
+        <v>23</v>
+      </c>
+      <c r="I50" t="s"/>
+      <c r="J50" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G51" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H51" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I51" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J51" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>17</v>
-      </c>
-      <c r="G52" t="s">
-        <v>21</v>
-      </c>
-      <c r="H52" t="s"/>
-      <c r="I52" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G52" t="s"/>
+      <c r="H52" t="s">
+        <v>23</v>
+      </c>
+      <c r="I52" t="s"/>
+      <c r="J52" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G53" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H53" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I53" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J53" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>17</v>
-      </c>
-      <c r="G54" t="s">
-        <v>21</v>
-      </c>
-      <c r="H54" t="s"/>
-      <c r="I54" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G54" t="s"/>
+      <c r="H54" t="s">
+        <v>23</v>
+      </c>
+      <c r="I54" t="s"/>
+      <c r="J54" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G55" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H55" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I55" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J55" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>17</v>
-      </c>
-      <c r="G56" t="s">
-        <v>21</v>
-      </c>
-      <c r="H56" t="s"/>
-      <c r="I56" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G56" t="s"/>
+      <c r="H56" t="s">
+        <v>23</v>
+      </c>
+      <c r="I56" t="s"/>
+      <c r="J56" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G57" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H57" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I57" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J57" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>17</v>
-      </c>
-      <c r="G58" t="s">
-        <v>21</v>
-      </c>
-      <c r="H58" t="s"/>
-      <c r="I58" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G58" t="s"/>
+      <c r="H58" t="s">
+        <v>23</v>
+      </c>
+      <c r="I58" t="s"/>
+      <c r="J58" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G59" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H59" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I59" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J59" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>17</v>
-      </c>
-      <c r="G60" t="s">
-        <v>24</v>
-      </c>
-      <c r="H60" t="s"/>
-      <c r="I60" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G60" t="s"/>
+      <c r="H60" t="s">
+        <v>26</v>
+      </c>
+      <c r="I60" t="s"/>
+      <c r="J60" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>17</v>
-      </c>
-      <c r="G61" t="s">
-        <v>21</v>
-      </c>
-      <c r="H61" t="s"/>
-      <c r="I61" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G61" t="s"/>
+      <c r="H61" t="s">
+        <v>23</v>
+      </c>
+      <c r="I61" t="s"/>
+      <c r="J61" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>17</v>
-      </c>
-      <c r="G62" t="s">
-        <v>18</v>
-      </c>
-      <c r="H62" t="s"/>
-      <c r="I62" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G62" t="s"/>
+      <c r="H62" t="s">
+        <v>20</v>
+      </c>
+      <c r="I62" t="s"/>
+      <c r="J62" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>17</v>
-      </c>
-      <c r="G63" t="s">
-        <v>18</v>
-      </c>
-      <c r="H63" t="s"/>
-      <c r="I63" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G63" t="s"/>
+      <c r="H63" t="s">
+        <v>20</v>
+      </c>
+      <c r="I63" t="s"/>
+      <c r="J63" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>17</v>
-      </c>
-      <c r="G64" t="s">
-        <v>18</v>
-      </c>
-      <c r="H64" t="s"/>
-      <c r="I64" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G64" t="s"/>
+      <c r="H64" t="s">
+        <v>20</v>
+      </c>
+      <c r="I64" t="s"/>
+      <c r="J64" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>17</v>
-      </c>
-      <c r="G65" t="s">
-        <v>18</v>
-      </c>
-      <c r="H65" t="s"/>
-      <c r="I65" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G65" t="s"/>
+      <c r="H65" t="s">
+        <v>20</v>
+      </c>
+      <c r="I65" t="s"/>
+      <c r="J65" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>17</v>
-      </c>
-      <c r="G66" t="s">
-        <v>18</v>
-      </c>
-      <c r="H66" t="s"/>
-      <c r="I66" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G66" t="s"/>
+      <c r="H66" t="s">
+        <v>20</v>
+      </c>
+      <c r="I66" t="s"/>
+      <c r="J66" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>17</v>
-      </c>
-      <c r="G67" t="s">
-        <v>18</v>
-      </c>
-      <c r="H67" t="s"/>
-      <c r="I67" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G67" t="s"/>
+      <c r="H67" t="s">
+        <v>20</v>
+      </c>
+      <c r="I67" t="s"/>
+      <c r="J67" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>17</v>
-      </c>
-      <c r="G68" t="s">
-        <v>18</v>
-      </c>
-      <c r="H68" t="s"/>
-      <c r="I68" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G68" t="s"/>
+      <c r="H68" t="s">
+        <v>20</v>
+      </c>
+      <c r="I68" t="s"/>
+      <c r="J68" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G69" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H69" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I69" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J69" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="G70" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="H70" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I70" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>93</v>
+      </c>
+      <c r="J70" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>17</v>
-      </c>
-      <c r="G71" t="s">
-        <v>21</v>
-      </c>
-      <c r="H71" t="s"/>
-      <c r="I71" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G71" t="s"/>
+      <c r="H71" t="s">
+        <v>23</v>
+      </c>
+      <c r="I71" t="s"/>
+      <c r="J71" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="G72" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="H72" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I72" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>93</v>
+      </c>
+      <c r="J72" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>17</v>
-      </c>
-      <c r="G73" t="s">
-        <v>21</v>
-      </c>
-      <c r="H73" t="s"/>
-      <c r="I73" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G73" t="s"/>
+      <c r="H73" t="s">
+        <v>23</v>
+      </c>
+      <c r="I73" t="s"/>
+      <c r="J73" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="G74" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="H74" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I74" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>93</v>
+      </c>
+      <c r="J74" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>17</v>
-      </c>
-      <c r="G75" t="s">
-        <v>21</v>
-      </c>
-      <c r="H75" t="s"/>
-      <c r="I75" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G75" t="s"/>
+      <c r="H75" t="s">
+        <v>23</v>
+      </c>
+      <c r="I75" t="s"/>
+      <c r="J75" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="G76" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="H76" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I76" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>93</v>
+      </c>
+      <c r="J76" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>17</v>
-      </c>
-      <c r="G77" t="s">
-        <v>21</v>
-      </c>
-      <c r="H77" t="s"/>
-      <c r="I77" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G77" t="s"/>
+      <c r="H77" t="s">
+        <v>23</v>
+      </c>
+      <c r="I77" t="s"/>
+      <c r="J77" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="G78" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="H78" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I78" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>93</v>
+      </c>
+      <c r="J78" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>17</v>
-      </c>
-      <c r="G79" t="s">
-        <v>21</v>
-      </c>
-      <c r="H79" t="s"/>
-      <c r="I79" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G79" t="s"/>
+      <c r="H79" t="s">
+        <v>23</v>
+      </c>
+      <c r="I79" t="s"/>
+      <c r="J79" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="G80" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="H80" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I80" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>93</v>
+      </c>
+      <c r="J80" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>17</v>
-      </c>
-      <c r="G81" t="s">
-        <v>21</v>
-      </c>
-      <c r="H81" t="s"/>
-      <c r="I81" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G81" t="s"/>
+      <c r="H81" t="s">
+        <v>23</v>
+      </c>
+      <c r="I81" t="s"/>
+      <c r="J81" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="G82" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="H82" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I82" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>93</v>
+      </c>
+      <c r="J82" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>17</v>
-      </c>
-      <c r="G83" t="s">
-        <v>21</v>
-      </c>
-      <c r="H83" t="s"/>
-      <c r="I83" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G83" t="s"/>
+      <c r="H83" t="s">
+        <v>23</v>
+      </c>
+      <c r="I83" t="s"/>
+      <c r="J83" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="G84" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="H84" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I84" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>93</v>
+      </c>
+      <c r="J84" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>17</v>
-      </c>
-      <c r="G85" t="s">
-        <v>21</v>
-      </c>
-      <c r="H85" t="s"/>
-      <c r="I85" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G85" t="s"/>
+      <c r="H85" t="s">
+        <v>23</v>
+      </c>
+      <c r="I85" t="s"/>
+      <c r="J85" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="G86" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="H86" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I86" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>93</v>
+      </c>
+      <c r="J86" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G87" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H87" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I87" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J87" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="G88" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="H88" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I88" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>93</v>
+      </c>
+      <c r="J88" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>17</v>
-      </c>
-      <c r="G89" t="s">
-        <v>21</v>
-      </c>
-      <c r="H89" t="s"/>
-      <c r="I89" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G89" t="s"/>
+      <c r="H89" t="s">
+        <v>23</v>
+      </c>
+      <c r="I89" t="s"/>
+      <c r="J89" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="G90" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="H90" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I90" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>93</v>
+      </c>
+      <c r="J90" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>17</v>
-      </c>
-      <c r="G91" t="s">
-        <v>18</v>
-      </c>
-      <c r="H91" t="s"/>
-      <c r="I91" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G91" t="s"/>
+      <c r="H91" t="s">
+        <v>20</v>
+      </c>
+      <c r="I91" t="s"/>
+      <c r="J91" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="G92" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="H92" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I92" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>93</v>
+      </c>
+      <c r="J92" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>17</v>
-      </c>
-      <c r="G93" t="s">
-        <v>18</v>
-      </c>
-      <c r="H93" t="s"/>
-      <c r="I93" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G93" t="s"/>
+      <c r="H93" t="s">
+        <v>20</v>
+      </c>
+      <c r="I93" t="s"/>
+      <c r="J93" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="G94" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="H94" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I94" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>93</v>
+      </c>
+      <c r="J94" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>17</v>
-      </c>
-      <c r="G95" t="s">
-        <v>18</v>
-      </c>
-      <c r="H95" t="s"/>
-      <c r="I95" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G95" t="s"/>
+      <c r="H95" t="s">
+        <v>20</v>
+      </c>
+      <c r="I95" t="s"/>
+      <c r="J95" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="G96" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="H96" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I96" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>93</v>
+      </c>
+      <c r="J96" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>17</v>
-      </c>
-      <c r="G97" t="s">
-        <v>18</v>
-      </c>
-      <c r="H97" t="s"/>
-      <c r="I97" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G97" t="s"/>
+      <c r="H97" t="s">
+        <v>20</v>
+      </c>
+      <c r="I97" t="s"/>
+      <c r="J97" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="G98" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="H98" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I98" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>93</v>
+      </c>
+      <c r="J98" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>17</v>
-      </c>
-      <c r="G99" t="s">
-        <v>18</v>
-      </c>
-      <c r="H99" t="s"/>
-      <c r="I99" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G99" t="s"/>
+      <c r="H99" t="s">
+        <v>20</v>
+      </c>
+      <c r="I99" t="s"/>
+      <c r="J99" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F100" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="G100" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="H100" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I100" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>93</v>
+      </c>
+      <c r="J100" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F101" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G101" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H101" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I101" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J101" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F102" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="G102" t="s">
-        <v>123</v>
+        <v>91</v>
       </c>
       <c r="H102" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="I102" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>128</v>
+      </c>
+      <c r="J102" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F103" t="s">
-        <v>17</v>
-      </c>
-      <c r="G103" t="s">
-        <v>18</v>
-      </c>
-      <c r="H103" t="s"/>
-      <c r="I103" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G103" t="s"/>
+      <c r="H103" t="s">
+        <v>20</v>
+      </c>
+      <c r="I103" t="s"/>
+      <c r="J103" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F104" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="G104" t="s">
-        <v>123</v>
+        <v>91</v>
       </c>
       <c r="H104" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="I104" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>128</v>
+      </c>
+      <c r="J104" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E105" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F105" t="s">
-        <v>17</v>
-      </c>
-      <c r="G105" t="s">
-        <v>18</v>
-      </c>
-      <c r="H105" t="s"/>
-      <c r="I105" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G105" t="s"/>
+      <c r="H105" t="s">
+        <v>20</v>
+      </c>
+      <c r="I105" t="s"/>
+      <c r="J105" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F106" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="G106" t="s">
-        <v>123</v>
+        <v>91</v>
       </c>
       <c r="H106" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="I106" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>128</v>
+      </c>
+      <c r="J106" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F107" t="s">
-        <v>17</v>
-      </c>
-      <c r="G107" t="s">
-        <v>18</v>
-      </c>
-      <c r="H107" t="s"/>
-      <c r="I107" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G107" t="s"/>
+      <c r="H107" t="s">
+        <v>20</v>
+      </c>
+      <c r="I107" t="s"/>
+      <c r="J107" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E108" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F108" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="G108" t="s">
-        <v>123</v>
+        <v>91</v>
       </c>
       <c r="H108" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="I108" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>128</v>
+      </c>
+      <c r="J108" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E109" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F109" t="s">
-        <v>17</v>
-      </c>
-      <c r="G109" t="s">
-        <v>21</v>
-      </c>
-      <c r="H109" t="s"/>
-      <c r="I109" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G109" t="s"/>
+      <c r="H109" t="s">
+        <v>23</v>
+      </c>
+      <c r="I109" t="s"/>
+      <c r="J109" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E110" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F110" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="G110" t="s">
-        <v>123</v>
+        <v>91</v>
       </c>
       <c r="H110" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="I110" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>128</v>
+      </c>
+      <c r="J110" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E111" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F111" t="s">
-        <v>17</v>
-      </c>
-      <c r="G111" t="s">
-        <v>21</v>
-      </c>
-      <c r="H111" t="s"/>
-      <c r="I111" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G111" t="s"/>
+      <c r="H111" t="s">
+        <v>23</v>
+      </c>
+      <c r="I111" t="s"/>
+      <c r="J111" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E112" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F112" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="G112" t="s">
-        <v>123</v>
+        <v>91</v>
       </c>
       <c r="H112" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="I112" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>128</v>
+      </c>
+      <c r="J112" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E113" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F113" t="s">
-        <v>17</v>
-      </c>
-      <c r="G113" t="s">
-        <v>21</v>
-      </c>
-      <c r="H113" t="s"/>
-      <c r="I113" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G113" t="s"/>
+      <c r="H113" t="s">
+        <v>23</v>
+      </c>
+      <c r="I113" t="s"/>
+      <c r="J113" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E114" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F114" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="G114" t="s">
-        <v>123</v>
+        <v>91</v>
       </c>
       <c r="H114" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="I114" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <v>128</v>
+      </c>
+      <c r="J114" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E115" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F115" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G115" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H115" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I115" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J115" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E116" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F116" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="G116" t="s">
-        <v>140</v>
+        <v>91</v>
       </c>
       <c r="H116" t="s">
-        <v>14</v>
+        <v>144</v>
       </c>
       <c r="I116" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J116" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E117" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F117" t="s">
-        <v>17</v>
-      </c>
-      <c r="G117" t="s">
-        <v>18</v>
-      </c>
-      <c r="H117" t="s"/>
-      <c r="I117" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G117" t="s"/>
+      <c r="H117" t="s">
+        <v>20</v>
+      </c>
+      <c r="I117" t="s"/>
+      <c r="J117" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E118" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F118" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="G118" t="s">
-        <v>140</v>
+        <v>91</v>
       </c>
       <c r="H118" t="s">
-        <v>14</v>
+        <v>144</v>
       </c>
       <c r="I118" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J118" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E119" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F119" t="s">
-        <v>17</v>
-      </c>
-      <c r="G119" t="s">
-        <v>18</v>
-      </c>
-      <c r="H119" t="s"/>
-      <c r="I119" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G119" t="s"/>
+      <c r="H119" t="s">
+        <v>20</v>
+      </c>
+      <c r="I119" t="s"/>
+      <c r="J119" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E120" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F120" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="G120" t="s">
-        <v>140</v>
+        <v>91</v>
       </c>
       <c r="H120" t="s">
-        <v>14</v>
+        <v>144</v>
       </c>
       <c r="I120" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J120" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E121" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F121" t="s">
-        <v>17</v>
-      </c>
-      <c r="G121" t="s">
-        <v>18</v>
-      </c>
-      <c r="H121" t="s"/>
-      <c r="I121" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G121" t="s"/>
+      <c r="H121" t="s">
+        <v>20</v>
+      </c>
+      <c r="I121" t="s"/>
+      <c r="J121" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E122" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F122" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="G122" t="s">
-        <v>140</v>
+        <v>91</v>
       </c>
       <c r="H122" t="s">
-        <v>14</v>
+        <v>144</v>
       </c>
       <c r="I122" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J122" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E123" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F123" t="s">
-        <v>17</v>
-      </c>
-      <c r="G123" t="s">
-        <v>18</v>
-      </c>
-      <c r="H123" t="s"/>
-      <c r="I123" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G123" t="s"/>
+      <c r="H123" t="s">
+        <v>20</v>
+      </c>
+      <c r="I123" t="s"/>
+      <c r="J123" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E124" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F124" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="G124" t="s">
-        <v>140</v>
+        <v>91</v>
       </c>
       <c r="H124" t="s">
-        <v>14</v>
+        <v>144</v>
       </c>
       <c r="I124" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J124" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E125" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F125" t="s">
-        <v>17</v>
-      </c>
-      <c r="G125" t="s">
-        <v>21</v>
-      </c>
-      <c r="H125" t="s"/>
-      <c r="I125" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G125" t="s"/>
+      <c r="H125" t="s">
+        <v>23</v>
+      </c>
+      <c r="I125" t="s"/>
+      <c r="J125" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E126" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F126" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="G126" t="s">
-        <v>140</v>
+        <v>91</v>
       </c>
       <c r="H126" t="s">
-        <v>14</v>
+        <v>144</v>
       </c>
       <c r="I126" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J126" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E127" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F127" t="s">
-        <v>17</v>
-      </c>
-      <c r="G127" t="s">
-        <v>21</v>
-      </c>
-      <c r="H127" t="s"/>
-      <c r="I127" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G127" t="s"/>
+      <c r="H127" t="s">
+        <v>23</v>
+      </c>
+      <c r="I127" t="s"/>
+      <c r="J127" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E128" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F128" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="G128" t="s">
-        <v>140</v>
+        <v>91</v>
       </c>
       <c r="H128" t="s">
-        <v>14</v>
+        <v>144</v>
       </c>
       <c r="I128" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J128" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E129" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F129" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G129" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H129" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I129" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J129" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E130" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F130" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="G130" t="s">
-        <v>154</v>
+        <v>91</v>
       </c>
       <c r="H130" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="I130" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9">
+        <v>159</v>
+      </c>
+      <c r="J130" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E131" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F131" t="s">
-        <v>17</v>
-      </c>
-      <c r="G131" t="s">
-        <v>21</v>
-      </c>
-      <c r="H131" t="s"/>
-      <c r="I131" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G131" t="s"/>
+      <c r="H131" t="s">
+        <v>23</v>
+      </c>
+      <c r="I131" t="s"/>
+      <c r="J131" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E132" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F132" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="G132" t="s">
-        <v>154</v>
+        <v>91</v>
       </c>
       <c r="H132" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="I132" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9">
+        <v>159</v>
+      </c>
+      <c r="J132" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E133" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F133" t="s">
-        <v>17</v>
-      </c>
-      <c r="G133" t="s">
-        <v>21</v>
-      </c>
-      <c r="H133" t="s"/>
-      <c r="I133" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G133" t="s"/>
+      <c r="H133" t="s">
+        <v>23</v>
+      </c>
+      <c r="I133" t="s"/>
+      <c r="J133" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E134" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F134" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="G134" t="s">
-        <v>154</v>
+        <v>91</v>
       </c>
       <c r="H134" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="I134" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9">
+        <v>159</v>
+      </c>
+      <c r="J134" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E135" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F135" t="s">
-        <v>17</v>
-      </c>
-      <c r="G135" t="s">
-        <v>18</v>
-      </c>
-      <c r="H135" t="s"/>
-      <c r="I135" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G135" t="s"/>
+      <c r="H135" t="s">
+        <v>20</v>
+      </c>
+      <c r="I135" t="s"/>
+      <c r="J135" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E136" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F136" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="G136" t="s">
-        <v>154</v>
+        <v>91</v>
       </c>
       <c r="H136" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="I136" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9">
+        <v>159</v>
+      </c>
+      <c r="J136" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E137" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F137" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G137" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H137" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I137" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J137" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E138" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F138" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="G138" t="s">
-        <v>165</v>
+        <v>91</v>
       </c>
       <c r="H138" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="I138" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9">
+        <v>170</v>
+      </c>
+      <c r="J138" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E139" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F139" t="s">
-        <v>17</v>
-      </c>
-      <c r="G139" t="s">
-        <v>18</v>
-      </c>
-      <c r="H139" t="s"/>
-      <c r="I139" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G139" t="s"/>
+      <c r="H139" t="s">
+        <v>20</v>
+      </c>
+      <c r="I139" t="s"/>
+      <c r="J139" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E140" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F140" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="G140" t="s">
-        <v>165</v>
+        <v>91</v>
       </c>
       <c r="H140" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="I140" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9">
+        <v>170</v>
+      </c>
+      <c r="J140" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E141" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F141" t="s">
-        <v>17</v>
-      </c>
-      <c r="G141" t="s">
-        <v>18</v>
-      </c>
-      <c r="H141" t="s"/>
-      <c r="I141" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G141" t="s"/>
+      <c r="H141" t="s">
+        <v>20</v>
+      </c>
+      <c r="I141" t="s"/>
+      <c r="J141" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E142" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F142" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="G142" t="s">
-        <v>165</v>
+        <v>91</v>
       </c>
       <c r="H142" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="I142" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9">
+        <v>170</v>
+      </c>
+      <c r="J142" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E143" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F143" t="s">
-        <v>17</v>
-      </c>
-      <c r="G143" t="s">
-        <v>18</v>
-      </c>
-      <c r="H143" t="s"/>
-      <c r="I143" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G143" t="s"/>
+      <c r="H143" t="s">
+        <v>20</v>
+      </c>
+      <c r="I143" t="s"/>
+      <c r="J143" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E144" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F144" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="G144" t="s">
-        <v>165</v>
+        <v>91</v>
       </c>
       <c r="H144" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="I144" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9">
+        <v>170</v>
+      </c>
+      <c r="J144" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E145" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F145" t="s">
-        <v>17</v>
-      </c>
-      <c r="G145" t="s">
-        <v>18</v>
-      </c>
-      <c r="H145" t="s"/>
-      <c r="I145" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G145" t="s"/>
+      <c r="H145" t="s">
+        <v>20</v>
+      </c>
+      <c r="I145" t="s"/>
+      <c r="J145" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E146" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F146" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="G146" t="s">
-        <v>165</v>
+        <v>91</v>
       </c>
       <c r="H146" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="I146" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9">
+        <v>170</v>
+      </c>
+      <c r="J146" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E147" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F147" t="s">
-        <v>17</v>
-      </c>
-      <c r="G147" t="s">
-        <v>18</v>
-      </c>
-      <c r="H147" t="s"/>
-      <c r="I147" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G147" t="s"/>
+      <c r="H147" t="s">
+        <v>20</v>
+      </c>
+      <c r="I147" t="s"/>
+      <c r="J147" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E148" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F148" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="G148" t="s">
-        <v>165</v>
+        <v>91</v>
       </c>
       <c r="H148" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="I148" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9">
+        <v>170</v>
+      </c>
+      <c r="J148" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E149" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F149" t="s">
-        <v>17</v>
-      </c>
-      <c r="G149" t="s">
-        <v>21</v>
-      </c>
-      <c r="H149" t="s"/>
-      <c r="I149" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G149" t="s"/>
+      <c r="H149" t="s">
+        <v>23</v>
+      </c>
+      <c r="I149" t="s"/>
+      <c r="J149" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E150" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F150" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="G150" t="s">
-        <v>165</v>
+        <v>91</v>
       </c>
       <c r="H150" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="I150" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9">
+        <v>170</v>
+      </c>
+      <c r="J150" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E151" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F151" t="s">
-        <v>17</v>
-      </c>
-      <c r="G151" t="s">
-        <v>21</v>
-      </c>
-      <c r="H151" t="s"/>
-      <c r="I151" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G151" t="s"/>
+      <c r="H151" t="s">
+        <v>23</v>
+      </c>
+      <c r="I151" t="s"/>
+      <c r="J151" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E152" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F152" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="G152" t="s">
-        <v>165</v>
+        <v>91</v>
       </c>
       <c r="H152" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="I152" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9">
+        <v>170</v>
+      </c>
+      <c r="J152" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E153" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F153" t="s">
-        <v>17</v>
-      </c>
-      <c r="G153" t="s">
-        <v>21</v>
-      </c>
-      <c r="H153" t="s"/>
-      <c r="I153" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G153" t="s"/>
+      <c r="H153" t="s">
+        <v>23</v>
+      </c>
+      <c r="I153" t="s"/>
+      <c r="J153" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E154" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F154" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="G154" t="s">
-        <v>165</v>
+        <v>91</v>
       </c>
       <c r="H154" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="I154" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9">
+        <v>170</v>
+      </c>
+      <c r="J154" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E155" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F155" t="s">
-        <v>17</v>
-      </c>
-      <c r="G155" t="s">
-        <v>21</v>
-      </c>
-      <c r="H155" t="s"/>
-      <c r="I155" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G155" t="s"/>
+      <c r="H155" t="s">
+        <v>23</v>
+      </c>
+      <c r="I155" t="s"/>
+      <c r="J155" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C156" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D156" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E156" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F156" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="G156" t="s">
-        <v>165</v>
+        <v>91</v>
       </c>
       <c r="H156" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="I156" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9">
+        <v>170</v>
+      </c>
+      <c r="J156" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C157" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D157" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E157" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F157" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G157" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H157" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I157" t="s">
-        <v>185</v>
+        <v>16</v>
+      </c>
+      <c r="J157" t="s">
+        <v>189</v>
       </c>
     </row>
   </sheetData>
